--- a/SourceDataTables/FigS12b.xlsx
+++ b/SourceDataTables/FigS12b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="450">
   <si>
     <t>Gene</t>
   </si>
@@ -1383,7 +1383,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1393,14 +1393,54 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1419,18 +1459,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1441,7 +1481,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1452,7 +1492,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1463,7 +1503,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1474,7 +1514,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1485,7 +1525,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1496,7 +1536,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1507,7 +1547,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1518,7 +1558,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1529,7 +1569,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1540,7 +1580,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1551,7 +1591,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1562,7 +1602,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1573,7 +1613,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1584,7 +1624,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1595,7 +1635,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1606,7 +1646,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1617,7 +1657,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1628,7 +1668,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1639,7 +1679,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1650,7 +1690,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1661,7 +1701,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1672,7 +1712,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1683,7 +1723,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1694,7 +1734,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1705,7 +1745,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1716,7 +1756,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1727,7 +1767,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1738,7 +1778,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1749,7 +1789,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1760,7 +1800,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1771,7 +1811,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1782,7 +1822,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1793,7 +1833,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1804,7 +1844,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1815,7 +1855,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1826,7 +1866,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1837,7 +1877,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1848,7 +1888,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1859,7 +1899,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1870,7 +1910,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1881,7 +1921,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1892,7 +1932,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1903,7 +1943,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1914,7 +1954,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1925,7 +1965,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1936,7 +1976,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1947,7 +1987,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1958,7 +1998,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -1969,7 +2009,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1980,7 +2020,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1991,7 +2031,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -2002,7 +2042,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -2013,7 +2053,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -2024,7 +2064,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -2035,7 +2075,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2046,7 +2086,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2057,7 +2097,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2068,7 +2108,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2079,7 +2119,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2090,7 +2130,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -2101,7 +2141,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -2112,7 +2152,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2123,7 +2163,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -2134,7 +2174,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -2145,7 +2185,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -2156,7 +2196,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -2167,7 +2207,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -2178,7 +2218,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -2189,7 +2229,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -2200,7 +2240,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -2211,7 +2251,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -2222,7 +2262,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -2233,7 +2273,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -2244,7 +2284,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -2255,7 +2295,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -2266,7 +2306,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -2277,7 +2317,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -2288,7 +2328,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -2299,7 +2339,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="21" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -2310,7 +2350,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="21" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -2321,7 +2361,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -2332,7 +2372,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -2343,7 +2383,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="21" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -2354,7 +2394,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -2365,7 +2405,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="21" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -2376,7 +2416,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="21" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -2387,7 +2427,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="21" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -2398,7 +2438,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -2409,7 +2449,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -2420,7 +2460,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="21" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -2431,7 +2471,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -2442,7 +2482,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -2453,7 +2493,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -2464,7 +2504,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -2475,7 +2515,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -2486,7 +2526,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -2497,7 +2537,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -2508,7 +2548,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -2519,7 +2559,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -2530,7 +2570,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -2541,7 +2581,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -2552,7 +2592,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -2563,7 +2603,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -2574,7 +2614,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -2585,7 +2625,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="21" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -2596,7 +2636,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="21" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -2607,7 +2647,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -2618,7 +2658,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -2629,7 +2669,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="21" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -2640,7 +2680,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="21" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -2651,7 +2691,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="21" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -2662,7 +2702,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="21" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -2673,7 +2713,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="21" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -2684,7 +2724,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="21" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -2695,7 +2735,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="21" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -2706,7 +2746,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -2717,7 +2757,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="21" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -2728,7 +2768,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="21" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -2739,7 +2779,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -2750,7 +2790,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -2761,7 +2801,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="21" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -2772,7 +2812,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="21" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -2783,7 +2823,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="21" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -2794,7 +2834,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="21" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -2805,7 +2845,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="21" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -2816,7 +2856,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="21" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -2827,7 +2867,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="21" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -2838,7 +2878,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="21" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -2849,7 +2889,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -2860,7 +2900,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="21" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -2871,7 +2911,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -2882,7 +2922,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="21" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -2893,7 +2933,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="21" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -2904,7 +2944,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -2915,7 +2955,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="21" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -2926,7 +2966,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="21" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -2937,7 +2977,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="21" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -2948,7 +2988,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -2959,7 +2999,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="21" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -2970,7 +3010,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="21" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -2981,7 +3021,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -2992,7 +3032,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="21" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -3003,7 +3043,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="21" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -3014,7 +3054,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="21" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -3025,7 +3065,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="21" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -3036,7 +3076,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="21" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -3047,7 +3087,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="21" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -3058,7 +3098,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="21" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -3069,7 +3109,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="21" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -3080,7 +3120,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="21" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -3091,7 +3131,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="21" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -3102,7 +3142,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="21" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -3113,7 +3153,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="21" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -3124,7 +3164,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="21" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -3135,7 +3175,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="21" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -3146,7 +3186,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="21" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -3157,7 +3197,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -3168,7 +3208,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="21" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -3179,7 +3219,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="21" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -3190,7 +3230,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="21" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -3201,7 +3241,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="21" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -3212,7 +3252,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="21" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -3223,7 +3263,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="21" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -3234,7 +3274,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="21" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -3245,7 +3285,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="21" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -3256,7 +3296,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="21" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -3267,7 +3307,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="21" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -3278,7 +3318,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="21" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -3289,7 +3329,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="21" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -3300,7 +3340,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="21" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -3311,7 +3351,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="21" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -3322,7 +3362,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="21" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -3333,7 +3373,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="21" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -3344,7 +3384,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="21" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -3355,7 +3395,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="21" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -3366,7 +3406,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="21" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -3377,7 +3417,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="21" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -3388,7 +3428,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="21" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -3399,7 +3439,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="21" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -3410,7 +3450,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="21" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -3421,7 +3461,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="21" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -3432,7 +3472,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="21" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -3443,7 +3483,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="21" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -3454,7 +3494,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="21" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -3465,7 +3505,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="21" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -3476,7 +3516,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="21" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -3487,7 +3527,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="21" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -3498,7 +3538,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="21" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -3509,7 +3549,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="21" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -3520,7 +3560,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="21" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -3531,7 +3571,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="21" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -3542,7 +3582,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="21" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -3553,7 +3593,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="21" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -3564,7 +3604,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="21" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -3575,7 +3615,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="21" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -3586,7 +3626,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="21" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -3597,7 +3637,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="21" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -3608,7 +3648,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="21" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -3619,7 +3659,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="21" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -3630,7 +3670,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="21" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -3641,7 +3681,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="21" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -3652,7 +3692,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="21" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -3663,7 +3703,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="21" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -3674,7 +3714,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="21" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -3685,7 +3725,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="21" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -3696,7 +3736,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="21" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -3707,7 +3747,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="21" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -3718,7 +3758,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="21" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -3729,7 +3769,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="21" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -3740,7 +3780,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="21" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -3751,7 +3791,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="21" t="s">
         <v>212</v>
       </c>
       <c r="B213">
@@ -3762,7 +3802,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="21" t="s">
         <v>213</v>
       </c>
       <c r="B214">
@@ -3773,7 +3813,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="21" t="s">
         <v>214</v>
       </c>
       <c r="B215">
@@ -3784,7 +3824,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="21" t="s">
         <v>215</v>
       </c>
       <c r="B216">
@@ -3795,7 +3835,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="21" t="s">
         <v>216</v>
       </c>
       <c r="B217">
@@ -3806,7 +3846,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="21" t="s">
         <v>217</v>
       </c>
       <c r="B218">
@@ -3817,7 +3857,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="21" t="s">
         <v>218</v>
       </c>
       <c r="B219">
@@ -3828,7 +3868,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="21" t="s">
         <v>219</v>
       </c>
       <c r="B220">
@@ -3839,7 +3879,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="21" t="s">
         <v>220</v>
       </c>
       <c r="B221">
@@ -3850,7 +3890,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="21" t="s">
         <v>221</v>
       </c>
       <c r="B222">
@@ -3861,7 +3901,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="21" t="s">
         <v>222</v>
       </c>
       <c r="B223">
@@ -3872,7 +3912,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="21" t="s">
         <v>223</v>
       </c>
       <c r="B224">
@@ -3883,7 +3923,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="21" t="s">
         <v>224</v>
       </c>
       <c r="B225">
@@ -3894,7 +3934,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="21" t="s">
         <v>225</v>
       </c>
       <c r="B226">
@@ -3905,7 +3945,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="21" t="s">
         <v>226</v>
       </c>
       <c r="B227">
@@ -3916,7 +3956,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="21" t="s">
         <v>227</v>
       </c>
       <c r="B228">
@@ -3927,7 +3967,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="21" t="s">
         <v>228</v>
       </c>
       <c r="B229">
@@ -3938,7 +3978,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="21" t="s">
         <v>229</v>
       </c>
       <c r="B230">
@@ -3949,7 +3989,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B231">
@@ -3960,7 +4000,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B232">
@@ -3971,7 +4011,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="21" t="s">
         <v>232</v>
       </c>
       <c r="B233">
@@ -3982,7 +4022,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="21" t="s">
         <v>233</v>
       </c>
       <c r="B234">
@@ -3993,7 +4033,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="21" t="s">
         <v>234</v>
       </c>
       <c r="B235">
@@ -4004,7 +4044,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="21" t="s">
         <v>235</v>
       </c>
       <c r="B236">
@@ -4015,7 +4055,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="21" t="s">
         <v>236</v>
       </c>
       <c r="B237">
@@ -4026,7 +4066,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="21" t="s">
         <v>237</v>
       </c>
       <c r="B238">
@@ -4037,7 +4077,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="21" t="s">
         <v>238</v>
       </c>
       <c r="B239">
@@ -4048,7 +4088,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="21" t="s">
         <v>239</v>
       </c>
       <c r="B240">
@@ -4059,7 +4099,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="21" t="s">
         <v>240</v>
       </c>
       <c r="B241">
@@ -4070,7 +4110,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="21" t="s">
         <v>241</v>
       </c>
       <c r="B242">
@@ -4081,7 +4121,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="21" t="s">
         <v>242</v>
       </c>
       <c r="B243">
@@ -4092,7 +4132,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="21" t="s">
         <v>243</v>
       </c>
       <c r="B244">
@@ -4103,7 +4143,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="21" t="s">
         <v>244</v>
       </c>
       <c r="B245">
@@ -4114,7 +4154,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="21" t="s">
         <v>245</v>
       </c>
       <c r="B246">
@@ -4125,7 +4165,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="21" t="s">
         <v>246</v>
       </c>
       <c r="B247">
@@ -4136,7 +4176,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="21" t="s">
         <v>247</v>
       </c>
       <c r="B248">
@@ -4147,7 +4187,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="21" t="s">
         <v>248</v>
       </c>
       <c r="B249">
@@ -4158,7 +4198,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="21" t="s">
         <v>249</v>
       </c>
       <c r="B250">
@@ -4169,7 +4209,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="21" t="s">
         <v>250</v>
       </c>
       <c r="B251">
@@ -4180,7 +4220,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="21" t="s">
         <v>251</v>
       </c>
       <c r="B252">
@@ -4191,7 +4231,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="21" t="s">
         <v>252</v>
       </c>
       <c r="B253">
@@ -4202,7 +4242,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="21" t="s">
         <v>253</v>
       </c>
       <c r="B254">
@@ -4213,7 +4253,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="21" t="s">
         <v>254</v>
       </c>
       <c r="B255">
@@ -4224,7 +4264,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="21" t="s">
         <v>255</v>
       </c>
       <c r="B256">
@@ -4235,7 +4275,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="21" t="s">
         <v>256</v>
       </c>
       <c r="B257">
@@ -4246,7 +4286,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="21" t="s">
         <v>257</v>
       </c>
       <c r="B258">
@@ -4257,7 +4297,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="21" t="s">
         <v>258</v>
       </c>
       <c r="B259">
@@ -4268,7 +4308,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="21" t="s">
         <v>259</v>
       </c>
       <c r="B260">
@@ -4279,7 +4319,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="21" t="s">
         <v>260</v>
       </c>
       <c r="B261">
@@ -4290,7 +4330,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="21" t="s">
         <v>261</v>
       </c>
       <c r="B262">
@@ -4301,7 +4341,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="21" t="s">
         <v>262</v>
       </c>
       <c r="B263">
@@ -4312,7 +4352,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="21" t="s">
         <v>263</v>
       </c>
       <c r="B264">
@@ -4323,7 +4363,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="21" t="s">
         <v>264</v>
       </c>
       <c r="B265">
@@ -4334,7 +4374,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="21" t="s">
         <v>265</v>
       </c>
       <c r="B266">
@@ -4345,7 +4385,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="21" t="s">
         <v>266</v>
       </c>
       <c r="B267">
@@ -4356,7 +4396,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="21" t="s">
         <v>267</v>
       </c>
       <c r="B268">
@@ -4367,7 +4407,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="21" t="s">
         <v>268</v>
       </c>
       <c r="B269">
@@ -4378,7 +4418,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="21" t="s">
         <v>269</v>
       </c>
       <c r="B270">
@@ -4389,7 +4429,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="21" t="s">
         <v>270</v>
       </c>
       <c r="B271">
@@ -4400,7 +4440,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="21" t="s">
         <v>271</v>
       </c>
       <c r="B272">
@@ -4411,7 +4451,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="21" t="s">
         <v>272</v>
       </c>
       <c r="B273">
@@ -4422,7 +4462,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="21" t="s">
         <v>273</v>
       </c>
       <c r="B274">
@@ -4433,7 +4473,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="21" t="s">
         <v>274</v>
       </c>
       <c r="B275">
@@ -4444,7 +4484,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="21" t="s">
         <v>275</v>
       </c>
       <c r="B276">
@@ -4455,7 +4495,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="21" t="s">
         <v>276</v>
       </c>
       <c r="B277">
@@ -4466,7 +4506,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="21" t="s">
         <v>277</v>
       </c>
       <c r="B278">
@@ -4477,7 +4517,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="21" t="s">
         <v>278</v>
       </c>
       <c r="B279">
@@ -4488,7 +4528,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="21" t="s">
         <v>279</v>
       </c>
       <c r="B280">
@@ -4499,7 +4539,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="21" t="s">
         <v>280</v>
       </c>
       <c r="B281">
@@ -4510,7 +4550,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="21" t="s">
         <v>281</v>
       </c>
       <c r="B282">
@@ -4521,7 +4561,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="21" t="s">
         <v>282</v>
       </c>
       <c r="B283">
@@ -4532,7 +4572,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="21" t="s">
         <v>283</v>
       </c>
       <c r="B284">
@@ -4543,7 +4583,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="21" t="s">
         <v>284</v>
       </c>
       <c r="B285">
@@ -4554,7 +4594,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="21" t="s">
         <v>285</v>
       </c>
       <c r="B286">
@@ -4565,7 +4605,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="21" t="s">
         <v>286</v>
       </c>
       <c r="B287">
@@ -4576,7 +4616,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="21" t="s">
         <v>287</v>
       </c>
       <c r="B288">
@@ -4587,7 +4627,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="21" t="s">
         <v>288</v>
       </c>
       <c r="B289">
@@ -4598,7 +4638,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="21" t="s">
         <v>289</v>
       </c>
       <c r="B290">
@@ -4609,7 +4649,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="21" t="s">
         <v>290</v>
       </c>
       <c r="B291">
@@ -4620,7 +4660,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="21" t="s">
         <v>291</v>
       </c>
       <c r="B292">
@@ -4631,7 +4671,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="21" t="s">
         <v>292</v>
       </c>
       <c r="B293">
@@ -4642,7 +4682,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="21" t="s">
         <v>293</v>
       </c>
       <c r="B294">
@@ -4653,7 +4693,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="21" t="s">
         <v>294</v>
       </c>
       <c r="B295">
@@ -4664,7 +4704,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="21" t="s">
         <v>295</v>
       </c>
       <c r="B296">
@@ -4675,7 +4715,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="21" t="s">
         <v>296</v>
       </c>
       <c r="B297">
@@ -4686,7 +4726,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="21" t="s">
         <v>297</v>
       </c>
       <c r="B298">
@@ -4697,7 +4737,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="21" t="s">
         <v>298</v>
       </c>
       <c r="B299">
@@ -4708,7 +4748,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="21" t="s">
         <v>299</v>
       </c>
       <c r="B300">
@@ -4719,7 +4759,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="21" t="s">
         <v>300</v>
       </c>
       <c r="B301">
@@ -4730,7 +4770,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="21" t="s">
         <v>301</v>
       </c>
       <c r="B302">
@@ -4741,7 +4781,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="21" t="s">
         <v>302</v>
       </c>
       <c r="B303">
@@ -4752,7 +4792,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="21" t="s">
         <v>303</v>
       </c>
       <c r="B304">
@@ -4763,7 +4803,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="21" t="s">
         <v>304</v>
       </c>
       <c r="B305">
@@ -4774,7 +4814,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="21" t="s">
         <v>305</v>
       </c>
       <c r="B306">
@@ -4785,7 +4825,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="21" t="s">
         <v>306</v>
       </c>
       <c r="B307">
@@ -4796,7 +4836,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="21" t="s">
         <v>307</v>
       </c>
       <c r="B308">
@@ -4807,7 +4847,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="21" t="s">
         <v>308</v>
       </c>
       <c r="B309">
@@ -4818,7 +4858,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="21" t="s">
         <v>309</v>
       </c>
       <c r="B310">
@@ -4829,7 +4869,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="21" t="s">
         <v>310</v>
       </c>
       <c r="B311">
@@ -4840,7 +4880,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="21" t="s">
         <v>311</v>
       </c>
       <c r="B312">
@@ -4851,7 +4891,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="s">
+      <c r="A313" s="21" t="s">
         <v>312</v>
       </c>
       <c r="B313">
@@ -4862,7 +4902,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="21" t="s">
         <v>313</v>
       </c>
       <c r="B314">
@@ -4873,7 +4913,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="21" t="s">
         <v>314</v>
       </c>
       <c r="B315">
@@ -4884,7 +4924,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="21" t="s">
         <v>315</v>
       </c>
       <c r="B316">
@@ -4895,7 +4935,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="21" t="s">
         <v>316</v>
       </c>
       <c r="B317">
@@ -4906,7 +4946,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="21" t="s">
         <v>317</v>
       </c>
       <c r="B318">
@@ -4917,7 +4957,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="21" t="s">
         <v>318</v>
       </c>
       <c r="B319">
@@ -4928,7 +4968,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="21" t="s">
         <v>319</v>
       </c>
       <c r="B320">
@@ -4939,7 +4979,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="21" t="s">
         <v>320</v>
       </c>
       <c r="B321">
@@ -4950,7 +4990,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="21" t="s">
         <v>321</v>
       </c>
       <c r="B322">
@@ -4961,7 +5001,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="21" t="s">
         <v>322</v>
       </c>
       <c r="B323">
@@ -4972,7 +5012,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="21" t="s">
         <v>323</v>
       </c>
       <c r="B324">
@@ -4983,7 +5023,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="21" t="s">
         <v>324</v>
       </c>
       <c r="B325">
@@ -4994,7 +5034,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="s">
+      <c r="A326" s="21" t="s">
         <v>325</v>
       </c>
       <c r="B326">
@@ -5005,7 +5045,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="s">
+      <c r="A327" s="21" t="s">
         <v>326</v>
       </c>
       <c r="B327">
@@ -5016,7 +5056,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="s">
+      <c r="A328" s="21" t="s">
         <v>327</v>
       </c>
       <c r="B328">
@@ -5027,7 +5067,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="21" t="s">
         <v>328</v>
       </c>
       <c r="B329">
@@ -5038,7 +5078,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="21" t="s">
         <v>329</v>
       </c>
       <c r="B330">
@@ -5049,7 +5089,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="s">
+      <c r="A331" s="21" t="s">
         <v>330</v>
       </c>
       <c r="B331">
@@ -5060,7 +5100,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="1" t="s">
+      <c r="A332" s="21" t="s">
         <v>331</v>
       </c>
       <c r="B332">
@@ -5071,7 +5111,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="1" t="s">
+      <c r="A333" s="21" t="s">
         <v>332</v>
       </c>
       <c r="B333">
@@ -5082,7 +5122,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="21" t="s">
         <v>333</v>
       </c>
       <c r="B334">
@@ -5093,7 +5133,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="1" t="s">
+      <c r="A335" s="21" t="s">
         <v>334</v>
       </c>
       <c r="B335">
@@ -5104,7 +5144,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="21" t="s">
         <v>335</v>
       </c>
       <c r="B336">
@@ -5115,7 +5155,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="21" t="s">
         <v>336</v>
       </c>
       <c r="B337">
@@ -5126,7 +5166,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="21" t="s">
         <v>337</v>
       </c>
       <c r="B338">
@@ -5137,7 +5177,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="21" t="s">
         <v>338</v>
       </c>
       <c r="B339">
@@ -5148,7 +5188,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="21" t="s">
         <v>339</v>
       </c>
       <c r="B340">
@@ -5159,7 +5199,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="21" t="s">
         <v>340</v>
       </c>
       <c r="B341">
@@ -5170,7 +5210,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="21" t="s">
         <v>341</v>
       </c>
       <c r="B342">
@@ -5181,7 +5221,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="21" t="s">
         <v>342</v>
       </c>
       <c r="B343">
@@ -5192,7 +5232,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="21" t="s">
         <v>343</v>
       </c>
       <c r="B344">
@@ -5203,7 +5243,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="21" t="s">
         <v>344</v>
       </c>
       <c r="B345">
@@ -5214,7 +5254,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="21" t="s">
         <v>345</v>
       </c>
       <c r="B346">
@@ -5225,7 +5265,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="21" t="s">
         <v>346</v>
       </c>
       <c r="B347">
@@ -5236,7 +5276,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="21" t="s">
         <v>347</v>
       </c>
       <c r="B348">
@@ -5247,7 +5287,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="21" t="s">
         <v>348</v>
       </c>
       <c r="B349">
@@ -5258,7 +5298,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="21" t="s">
         <v>349</v>
       </c>
       <c r="B350">
@@ -5269,7 +5309,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="1" t="s">
+      <c r="A351" s="21" t="s">
         <v>350</v>
       </c>
       <c r="B351">
@@ -5280,7 +5320,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="21" t="s">
         <v>351</v>
       </c>
       <c r="B352">
@@ -5291,7 +5331,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="21" t="s">
         <v>352</v>
       </c>
       <c r="B353">
@@ -5302,7 +5342,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="21" t="s">
         <v>353</v>
       </c>
       <c r="B354">
@@ -5313,7 +5353,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="21" t="s">
         <v>354</v>
       </c>
       <c r="B355">
@@ -5324,7 +5364,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="21" t="s">
         <v>355</v>
       </c>
       <c r="B356">
@@ -5335,7 +5375,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="21" t="s">
         <v>356</v>
       </c>
       <c r="B357">
@@ -5346,7 +5386,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="21" t="s">
         <v>357</v>
       </c>
       <c r="B358">
@@ -5357,7 +5397,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="21" t="s">
         <v>358</v>
       </c>
       <c r="B359">
@@ -5368,7 +5408,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="21" t="s">
         <v>359</v>
       </c>
       <c r="B360">
@@ -5379,7 +5419,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="21" t="s">
         <v>360</v>
       </c>
       <c r="B361">
@@ -5390,7 +5430,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="21" t="s">
         <v>361</v>
       </c>
       <c r="B362">
@@ -5401,7 +5441,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="1" t="s">
+      <c r="A363" s="21" t="s">
         <v>362</v>
       </c>
       <c r="B363">
@@ -5412,7 +5452,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="21" t="s">
         <v>363</v>
       </c>
       <c r="B364">
@@ -5423,7 +5463,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="21" t="s">
         <v>364</v>
       </c>
       <c r="B365">
@@ -5434,7 +5474,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="21" t="s">
         <v>365</v>
       </c>
       <c r="B366">
@@ -5445,7 +5485,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="21" t="s">
         <v>366</v>
       </c>
       <c r="B367">
@@ -5456,7 +5496,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="21" t="s">
         <v>367</v>
       </c>
       <c r="B368">
@@ -5467,7 +5507,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="1" t="s">
+      <c r="A369" s="21" t="s">
         <v>368</v>
       </c>
       <c r="B369">
@@ -5478,7 +5518,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="21" t="s">
         <v>369</v>
       </c>
       <c r="B370">
@@ -5489,7 +5529,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="21" t="s">
         <v>370</v>
       </c>
       <c r="B371">
@@ -5500,7 +5540,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="21" t="s">
         <v>371</v>
       </c>
       <c r="B372">
@@ -5511,7 +5551,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="21" t="s">
         <v>372</v>
       </c>
       <c r="B373">
@@ -5522,7 +5562,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="21" t="s">
         <v>373</v>
       </c>
       <c r="B374">
@@ -5533,7 +5573,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="21" t="s">
         <v>374</v>
       </c>
       <c r="B375">
@@ -5544,7 +5584,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="21" t="s">
         <v>375</v>
       </c>
       <c r="B376">
@@ -5555,7 +5595,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="21" t="s">
         <v>376</v>
       </c>
       <c r="B377">
@@ -5566,7 +5606,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="21" t="s">
         <v>377</v>
       </c>
       <c r="B378">
@@ -5577,7 +5617,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="21" t="s">
         <v>378</v>
       </c>
       <c r="B379">
@@ -5588,7 +5628,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="21" t="s">
         <v>379</v>
       </c>
       <c r="B380">
@@ -5599,7 +5639,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="21" t="s">
         <v>380</v>
       </c>
       <c r="B381">
@@ -5610,7 +5650,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="21" t="s">
         <v>381</v>
       </c>
       <c r="B382">
@@ -5621,7 +5661,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="21" t="s">
         <v>382</v>
       </c>
       <c r="B383">
@@ -5632,7 +5672,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="21" t="s">
         <v>383</v>
       </c>
       <c r="B384">
@@ -5643,7 +5683,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="21" t="s">
         <v>384</v>
       </c>
       <c r="B385">
@@ -5654,7 +5694,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="21" t="s">
         <v>385</v>
       </c>
       <c r="B386">
@@ -5665,7 +5705,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="21" t="s">
         <v>386</v>
       </c>
       <c r="B387">
@@ -5676,7 +5716,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="21" t="s">
         <v>387</v>
       </c>
       <c r="B388">
@@ -5687,7 +5727,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="1" t="s">
+      <c r="A389" s="21" t="s">
         <v>388</v>
       </c>
       <c r="B389">
@@ -5698,7 +5738,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="21" t="s">
         <v>389</v>
       </c>
       <c r="B390">
@@ -5709,7 +5749,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="1" t="s">
+      <c r="A391" s="21" t="s">
         <v>390</v>
       </c>
       <c r="B391">
@@ -5720,7 +5760,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="21" t="s">
         <v>391</v>
       </c>
       <c r="B392">
@@ -5731,7 +5771,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="21" t="s">
         <v>392</v>
       </c>
       <c r="B393">
@@ -5742,7 +5782,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="21" t="s">
         <v>393</v>
       </c>
       <c r="B394">
@@ -5753,7 +5793,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="1" t="s">
+      <c r="A395" s="21" t="s">
         <v>394</v>
       </c>
       <c r="B395">
@@ -5764,7 +5804,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="21" t="s">
         <v>395</v>
       </c>
       <c r="B396">
@@ -5775,7 +5815,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="1" t="s">
+      <c r="A397" s="21" t="s">
         <v>396</v>
       </c>
       <c r="B397">
@@ -5786,7 +5826,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="21" t="s">
         <v>397</v>
       </c>
       <c r="B398">
@@ -5797,7 +5837,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="21" t="s">
         <v>398</v>
       </c>
       <c r="B399">
@@ -5808,7 +5848,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="21" t="s">
         <v>399</v>
       </c>
       <c r="B400">
@@ -5819,7 +5859,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="21" t="s">
         <v>400</v>
       </c>
       <c r="B401">
@@ -5830,7 +5870,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="21" t="s">
         <v>401</v>
       </c>
       <c r="B402">
@@ -5841,7 +5881,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="21" t="s">
         <v>402</v>
       </c>
       <c r="B403">
@@ -5852,7 +5892,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="21" t="s">
         <v>403</v>
       </c>
       <c r="B404">
@@ -5863,7 +5903,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="1" t="s">
+      <c r="A405" s="21" t="s">
         <v>404</v>
       </c>
       <c r="B405">
@@ -5874,7 +5914,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="21" t="s">
         <v>405</v>
       </c>
       <c r="B406">
@@ -5885,7 +5925,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="1" t="s">
+      <c r="A407" s="21" t="s">
         <v>406</v>
       </c>
       <c r="B407">
@@ -5896,7 +5936,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="21" t="s">
         <v>407</v>
       </c>
       <c r="B408">
@@ -5907,7 +5947,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="21" t="s">
         <v>408</v>
       </c>
       <c r="B409">
@@ -5918,7 +5958,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="21" t="s">
         <v>409</v>
       </c>
       <c r="B410">
@@ -5929,7 +5969,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="21" t="s">
         <v>410</v>
       </c>
       <c r="B411">
@@ -5940,7 +5980,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="21" t="s">
         <v>411</v>
       </c>
       <c r="B412">
@@ -5951,7 +5991,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="21" t="s">
         <v>412</v>
       </c>
       <c r="B413">
@@ -5962,7 +6002,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="21" t="s">
         <v>413</v>
       </c>
       <c r="B414">
@@ -5973,7 +6013,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="1" t="s">
+      <c r="A415" s="21" t="s">
         <v>414</v>
       </c>
       <c r="B415">
@@ -5984,7 +6024,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="21" t="s">
         <v>415</v>
       </c>
       <c r="B416">
@@ -5995,7 +6035,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="21" t="s">
         <v>416</v>
       </c>
       <c r="B417">
@@ -6006,7 +6046,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="21" t="s">
         <v>417</v>
       </c>
       <c r="B418">
@@ -6017,7 +6057,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="1" t="s">
+      <c r="A419" s="21" t="s">
         <v>418</v>
       </c>
       <c r="B419">
@@ -6028,7 +6068,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="21" t="s">
         <v>419</v>
       </c>
       <c r="B420">
@@ -6039,7 +6079,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="21" t="s">
         <v>420</v>
       </c>
       <c r="B421">
@@ -6050,7 +6090,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="21" t="s">
         <v>421</v>
       </c>
       <c r="B422">
@@ -6061,7 +6101,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="21" t="s">
         <v>422</v>
       </c>
       <c r="B423">
@@ -6072,7 +6112,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="1" t="s">
+      <c r="A424" s="21" t="s">
         <v>423</v>
       </c>
       <c r="B424">
@@ -6083,7 +6123,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="1" t="s">
+      <c r="A425" s="21" t="s">
         <v>424</v>
       </c>
       <c r="B425">
@@ -6094,7 +6134,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="21" t="s">
         <v>425</v>
       </c>
       <c r="B426">
@@ -6105,7 +6145,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="21" t="s">
         <v>426</v>
       </c>
       <c r="B427">
@@ -6116,7 +6156,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="21" t="s">
         <v>427</v>
       </c>
       <c r="B428">
@@ -6127,7 +6167,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="21" t="s">
         <v>428</v>
       </c>
       <c r="B429">
@@ -6138,7 +6178,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="21" t="s">
         <v>429</v>
       </c>
       <c r="B430">
@@ -6149,7 +6189,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="21" t="s">
         <v>430</v>
       </c>
       <c r="B431">
@@ -6160,7 +6200,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="21" t="s">
         <v>431</v>
       </c>
       <c r="B432">
@@ -6171,7 +6211,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="21" t="s">
         <v>432</v>
       </c>
       <c r="B433">
@@ -6182,7 +6222,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="21" t="s">
         <v>433</v>
       </c>
       <c r="B434">
@@ -6193,7 +6233,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="1" t="s">
+      <c r="A435" s="21" t="s">
         <v>434</v>
       </c>
       <c r="B435">
@@ -6204,7 +6244,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="21" t="s">
         <v>435</v>
       </c>
       <c r="B436">
@@ -6215,7 +6255,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="21" t="s">
         <v>436</v>
       </c>
       <c r="B437">
@@ -6226,7 +6266,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="21" t="s">
         <v>437</v>
       </c>
       <c r="B438">
@@ -6237,7 +6277,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="1" t="s">
+      <c r="A439" s="21" t="s">
         <v>438</v>
       </c>
       <c r="B439">
@@ -6248,7 +6288,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="1" t="s">
+      <c r="A440" s="21" t="s">
         <v>439</v>
       </c>
       <c r="B440">
@@ -6259,7 +6299,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="21" t="s">
         <v>440</v>
       </c>
       <c r="B441">
@@ -6270,7 +6310,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="21" t="s">
         <v>441</v>
       </c>
       <c r="B442">
@@ -6281,7 +6321,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="1" t="s">
+      <c r="A443" s="21" t="s">
         <v>442</v>
       </c>
       <c r="B443">
@@ -6292,7 +6332,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="1" t="s">
+      <c r="A444" s="21" t="s">
         <v>443</v>
       </c>
       <c r="B444">
@@ -6303,7 +6343,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="1" t="s">
+      <c r="A445" s="21" t="s">
         <v>444</v>
       </c>
       <c r="B445">
@@ -6314,7 +6354,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="1" t="s">
+      <c r="A446" s="21" t="s">
         <v>445</v>
       </c>
       <c r="B446">
@@ -6325,7 +6365,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="1" t="s">
+      <c r="A447" s="21" t="s">
         <v>446</v>
       </c>
       <c r="B447">
@@ -6336,7 +6376,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="1" t="s">
+      <c r="A448" s="21" t="s">
         <v>447</v>
       </c>
       <c r="B448">

--- a/SourceDataTables/FigS12b.xlsx
+++ b/SourceDataTables/FigS12b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5850" uniqueCount="450">
   <si>
     <t>Gene</t>
   </si>
@@ -1383,7 +1383,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1413,11 +1413,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1441,6 +1445,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1459,18 +1467,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1481,7 +1489,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1492,7 +1500,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1503,7 +1511,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1514,7 +1522,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1525,7 +1533,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1536,7 +1544,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1547,7 +1555,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1558,7 +1566,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1569,7 +1577,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1580,7 +1588,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1591,7 +1599,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1602,7 +1610,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1613,7 +1621,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1624,7 +1632,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1635,7 +1643,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1646,7 +1654,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1657,7 +1665,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1668,7 +1676,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1679,7 +1687,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1690,7 +1698,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1701,7 +1709,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1712,7 +1720,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1723,7 +1731,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1734,7 +1742,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1745,7 +1753,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1756,7 +1764,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1767,7 +1775,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1778,7 +1786,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1789,7 +1797,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1800,7 +1808,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1811,7 +1819,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1822,7 +1830,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1833,7 +1841,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1844,7 +1852,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1855,7 +1863,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1866,7 +1874,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1877,7 +1885,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1888,7 +1896,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1899,7 +1907,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1910,7 +1918,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1921,7 +1929,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1932,7 +1940,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1943,7 +1951,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1954,7 +1962,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1965,7 +1973,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1976,7 +1984,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1987,7 +1995,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1998,7 +2006,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -2009,7 +2017,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -2020,7 +2028,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -2031,7 +2039,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -2042,7 +2050,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -2053,7 +2061,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="25" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -2064,7 +2072,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -2075,7 +2083,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2086,7 +2094,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2097,7 +2105,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2108,7 +2116,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2119,7 +2127,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2130,7 +2138,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -2141,7 +2149,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -2152,7 +2160,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2163,7 +2171,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -2174,7 +2182,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -2185,7 +2193,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -2196,7 +2204,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -2207,7 +2215,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -2218,7 +2226,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -2229,7 +2237,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="25" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -2240,7 +2248,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -2251,7 +2259,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -2262,7 +2270,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="25" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -2273,7 +2281,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="25" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -2284,7 +2292,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="25" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -2295,7 +2303,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="25" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -2306,7 +2314,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -2317,7 +2325,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -2328,7 +2336,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="25" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -2339,7 +2347,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -2350,7 +2358,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -2361,7 +2369,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -2372,7 +2380,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -2383,7 +2391,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -2394,7 +2402,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="25" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -2405,7 +2413,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -2416,7 +2424,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="25" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -2427,7 +2435,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -2438,7 +2446,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -2449,7 +2457,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -2460,7 +2468,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="25" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -2471,7 +2479,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -2482,7 +2490,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -2493,7 +2501,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -2504,7 +2512,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -2515,7 +2523,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="25" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -2526,7 +2534,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -2537,7 +2545,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -2548,7 +2556,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -2559,7 +2567,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="25" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -2570,7 +2578,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="25" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -2581,7 +2589,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -2592,7 +2600,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="25" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -2603,7 +2611,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -2614,7 +2622,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="25" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -2625,7 +2633,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="25" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -2636,7 +2644,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="21" t="s">
+      <c r="A108" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -2647,7 +2655,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -2658,7 +2666,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -2669,7 +2677,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="25" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -2680,7 +2688,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="25" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -2691,7 +2699,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="21" t="s">
+      <c r="A113" s="25" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -2702,7 +2710,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="25" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -2713,7 +2721,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -2724,7 +2732,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="21" t="s">
+      <c r="A116" s="25" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -2735,7 +2743,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="21" t="s">
+      <c r="A117" s="25" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -2746,7 +2754,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="25" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -2757,7 +2765,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="21" t="s">
+      <c r="A119" s="25" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -2768,7 +2776,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="25" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -2779,7 +2787,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="21" t="s">
+      <c r="A121" s="25" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -2790,7 +2798,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="21" t="s">
+      <c r="A122" s="25" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -2801,7 +2809,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="21" t="s">
+      <c r="A123" s="25" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -2812,7 +2820,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="21" t="s">
+      <c r="A124" s="25" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -2823,7 +2831,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="25" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -2834,7 +2842,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="25" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -2845,7 +2853,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="25" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -2856,7 +2864,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -2867,7 +2875,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="25" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -2878,7 +2886,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="25" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -2889,7 +2897,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="25" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -2900,7 +2908,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -2911,7 +2919,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="25" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -2922,7 +2930,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="25" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -2933,7 +2941,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="25" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -2944,7 +2952,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="21" t="s">
+      <c r="A136" s="25" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -2955,7 +2963,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="21" t="s">
+      <c r="A137" s="25" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -2966,7 +2974,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="25" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -2977,7 +2985,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="21" t="s">
+      <c r="A139" s="25" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -2988,7 +2996,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="21" t="s">
+      <c r="A140" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -2999,7 +3007,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="21" t="s">
+      <c r="A141" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -3010,7 +3018,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="21" t="s">
+      <c r="A142" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -3021,7 +3029,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="21" t="s">
+      <c r="A143" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -3032,7 +3040,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="21" t="s">
+      <c r="A144" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -3043,7 +3051,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="21" t="s">
+      <c r="A145" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -3054,7 +3062,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -3065,7 +3073,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -3076,7 +3084,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -3087,7 +3095,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="21" t="s">
+      <c r="A149" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -3098,7 +3106,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="21" t="s">
+      <c r="A150" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -3109,7 +3117,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="21" t="s">
+      <c r="A151" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -3120,7 +3128,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="21" t="s">
+      <c r="A152" s="25" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -3131,7 +3139,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="25" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -3142,7 +3150,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="21" t="s">
+      <c r="A154" s="25" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -3153,7 +3161,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="21" t="s">
+      <c r="A155" s="25" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -3164,7 +3172,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="21" t="s">
+      <c r="A156" s="25" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -3175,7 +3183,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="21" t="s">
+      <c r="A157" s="25" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -3186,7 +3194,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="21" t="s">
+      <c r="A158" s="25" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -3197,7 +3205,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="21" t="s">
+      <c r="A159" s="25" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -3208,7 +3216,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="21" t="s">
+      <c r="A160" s="25" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -3219,7 +3227,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="21" t="s">
+      <c r="A161" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -3230,7 +3238,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="21" t="s">
+      <c r="A162" s="25" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -3241,7 +3249,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="21" t="s">
+      <c r="A163" s="25" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -3252,7 +3260,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="21" t="s">
+      <c r="A164" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -3263,7 +3271,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="21" t="s">
+      <c r="A165" s="25" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -3274,7 +3282,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="21" t="s">
+      <c r="A166" s="25" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -3285,7 +3293,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="21" t="s">
+      <c r="A167" s="25" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -3296,7 +3304,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="21" t="s">
+      <c r="A168" s="25" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -3307,7 +3315,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="21" t="s">
+      <c r="A169" s="25" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -3318,7 +3326,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="21" t="s">
+      <c r="A170" s="25" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -3329,7 +3337,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="21" t="s">
+      <c r="A171" s="25" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -3340,7 +3348,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="21" t="s">
+      <c r="A172" s="25" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -3351,7 +3359,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="21" t="s">
+      <c r="A173" s="25" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -3362,7 +3370,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="21" t="s">
+      <c r="A174" s="25" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -3373,7 +3381,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="21" t="s">
+      <c r="A175" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -3384,7 +3392,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="21" t="s">
+      <c r="A176" s="25" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -3395,7 +3403,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="21" t="s">
+      <c r="A177" s="25" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -3406,7 +3414,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="21" t="s">
+      <c r="A178" s="25" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -3417,7 +3425,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="21" t="s">
+      <c r="A179" s="25" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -3428,7 +3436,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="21" t="s">
+      <c r="A180" s="25" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -3439,7 +3447,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="21" t="s">
+      <c r="A181" s="25" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -3450,7 +3458,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="21" t="s">
+      <c r="A182" s="25" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -3461,7 +3469,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="21" t="s">
+      <c r="A183" s="25" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -3472,7 +3480,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="21" t="s">
+      <c r="A184" s="25" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -3483,7 +3491,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="21" t="s">
+      <c r="A185" s="25" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -3494,7 +3502,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="21" t="s">
+      <c r="A186" s="25" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -3505,7 +3513,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="21" t="s">
+      <c r="A187" s="25" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -3516,7 +3524,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="21" t="s">
+      <c r="A188" s="25" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -3527,7 +3535,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="21" t="s">
+      <c r="A189" s="25" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -3538,7 +3546,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="21" t="s">
+      <c r="A190" s="25" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -3549,7 +3557,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="21" t="s">
+      <c r="A191" s="25" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -3560,7 +3568,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="21" t="s">
+      <c r="A192" s="25" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -3571,7 +3579,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="21" t="s">
+      <c r="A193" s="25" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -3582,7 +3590,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="21" t="s">
+      <c r="A194" s="25" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -3593,7 +3601,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="21" t="s">
+      <c r="A195" s="25" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -3604,7 +3612,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="21" t="s">
+      <c r="A196" s="25" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -3615,7 +3623,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="21" t="s">
+      <c r="A197" s="25" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -3626,7 +3634,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="21" t="s">
+      <c r="A198" s="25" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -3637,7 +3645,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="21" t="s">
+      <c r="A199" s="25" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -3648,7 +3656,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="21" t="s">
+      <c r="A200" s="25" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -3659,7 +3667,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="21" t="s">
+      <c r="A201" s="25" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -3670,7 +3678,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="21" t="s">
+      <c r="A202" s="25" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -3681,7 +3689,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="21" t="s">
+      <c r="A203" s="25" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -3692,7 +3700,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="21" t="s">
+      <c r="A204" s="25" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -3703,7 +3711,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="21" t="s">
+      <c r="A205" s="25" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -3714,7 +3722,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="21" t="s">
+      <c r="A206" s="25" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -3725,7 +3733,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="21" t="s">
+      <c r="A207" s="25" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -3736,7 +3744,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="21" t="s">
+      <c r="A208" s="25" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -3747,7 +3755,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="21" t="s">
+      <c r="A209" s="25" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -3758,7 +3766,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="21" t="s">
+      <c r="A210" s="25" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -3769,7 +3777,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="21" t="s">
+      <c r="A211" s="25" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -3780,7 +3788,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="21" t="s">
+      <c r="A212" s="25" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -3791,7 +3799,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="21" t="s">
+      <c r="A213" s="25" t="s">
         <v>212</v>
       </c>
       <c r="B213">
@@ -3802,7 +3810,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="25" t="s">
         <v>213</v>
       </c>
       <c r="B214">
@@ -3813,7 +3821,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="21" t="s">
+      <c r="A215" s="25" t="s">
         <v>214</v>
       </c>
       <c r="B215">
@@ -3824,7 +3832,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="21" t="s">
+      <c r="A216" s="25" t="s">
         <v>215</v>
       </c>
       <c r="B216">
@@ -3835,7 +3843,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="21" t="s">
+      <c r="A217" s="25" t="s">
         <v>216</v>
       </c>
       <c r="B217">
@@ -3846,7 +3854,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="21" t="s">
+      <c r="A218" s="25" t="s">
         <v>217</v>
       </c>
       <c r="B218">
@@ -3857,7 +3865,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="21" t="s">
+      <c r="A219" s="25" t="s">
         <v>218</v>
       </c>
       <c r="B219">
@@ -3868,7 +3876,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="21" t="s">
+      <c r="A220" s="25" t="s">
         <v>219</v>
       </c>
       <c r="B220">
@@ -3879,7 +3887,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="21" t="s">
+      <c r="A221" s="25" t="s">
         <v>220</v>
       </c>
       <c r="B221">
@@ -3890,7 +3898,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="21" t="s">
+      <c r="A222" s="25" t="s">
         <v>221</v>
       </c>
       <c r="B222">
@@ -3901,7 +3909,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="21" t="s">
+      <c r="A223" s="25" t="s">
         <v>222</v>
       </c>
       <c r="B223">
@@ -3912,7 +3920,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="21" t="s">
+      <c r="A224" s="25" t="s">
         <v>223</v>
       </c>
       <c r="B224">
@@ -3923,7 +3931,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="21" t="s">
+      <c r="A225" s="25" t="s">
         <v>224</v>
       </c>
       <c r="B225">
@@ -3934,7 +3942,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="21" t="s">
+      <c r="A226" s="25" t="s">
         <v>225</v>
       </c>
       <c r="B226">
@@ -3945,7 +3953,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="21" t="s">
+      <c r="A227" s="25" t="s">
         <v>226</v>
       </c>
       <c r="B227">
@@ -3956,7 +3964,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="s">
+      <c r="A228" s="25" t="s">
         <v>227</v>
       </c>
       <c r="B228">
@@ -3967,7 +3975,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="21" t="s">
+      <c r="A229" s="25" t="s">
         <v>228</v>
       </c>
       <c r="B229">
@@ -3978,7 +3986,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="21" t="s">
+      <c r="A230" s="25" t="s">
         <v>229</v>
       </c>
       <c r="B230">
@@ -3989,7 +3997,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="21" t="s">
+      <c r="A231" s="25" t="s">
         <v>230</v>
       </c>
       <c r="B231">
@@ -4000,7 +4008,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="21" t="s">
+      <c r="A232" s="25" t="s">
         <v>231</v>
       </c>
       <c r="B232">
@@ -4011,7 +4019,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="21" t="s">
+      <c r="A233" s="25" t="s">
         <v>232</v>
       </c>
       <c r="B233">
@@ -4022,7 +4030,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="21" t="s">
+      <c r="A234" s="25" t="s">
         <v>233</v>
       </c>
       <c r="B234">
@@ -4033,7 +4041,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="21" t="s">
+      <c r="A235" s="25" t="s">
         <v>234</v>
       </c>
       <c r="B235">
@@ -4044,7 +4052,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="21" t="s">
+      <c r="A236" s="25" t="s">
         <v>235</v>
       </c>
       <c r="B236">
@@ -4055,7 +4063,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="21" t="s">
+      <c r="A237" s="25" t="s">
         <v>236</v>
       </c>
       <c r="B237">
@@ -4066,7 +4074,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="21" t="s">
+      <c r="A238" s="25" t="s">
         <v>237</v>
       </c>
       <c r="B238">
@@ -4077,7 +4085,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="21" t="s">
+      <c r="A239" s="25" t="s">
         <v>238</v>
       </c>
       <c r="B239">
@@ -4088,7 +4096,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="21" t="s">
+      <c r="A240" s="25" t="s">
         <v>239</v>
       </c>
       <c r="B240">
@@ -4099,7 +4107,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="21" t="s">
+      <c r="A241" s="25" t="s">
         <v>240</v>
       </c>
       <c r="B241">
@@ -4110,7 +4118,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="21" t="s">
+      <c r="A242" s="25" t="s">
         <v>241</v>
       </c>
       <c r="B242">
@@ -4121,7 +4129,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="21" t="s">
+      <c r="A243" s="25" t="s">
         <v>242</v>
       </c>
       <c r="B243">
@@ -4132,7 +4140,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="21" t="s">
+      <c r="A244" s="25" t="s">
         <v>243</v>
       </c>
       <c r="B244">
@@ -4143,7 +4151,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="21" t="s">
+      <c r="A245" s="25" t="s">
         <v>244</v>
       </c>
       <c r="B245">
@@ -4154,7 +4162,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="21" t="s">
+      <c r="A246" s="25" t="s">
         <v>245</v>
       </c>
       <c r="B246">
@@ -4165,7 +4173,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="21" t="s">
+      <c r="A247" s="25" t="s">
         <v>246</v>
       </c>
       <c r="B247">
@@ -4176,7 +4184,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="21" t="s">
+      <c r="A248" s="25" t="s">
         <v>247</v>
       </c>
       <c r="B248">
@@ -4187,7 +4195,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="21" t="s">
+      <c r="A249" s="25" t="s">
         <v>248</v>
       </c>
       <c r="B249">
@@ -4198,7 +4206,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="21" t="s">
+      <c r="A250" s="25" t="s">
         <v>249</v>
       </c>
       <c r="B250">
@@ -4209,7 +4217,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="21" t="s">
+      <c r="A251" s="25" t="s">
         <v>250</v>
       </c>
       <c r="B251">
@@ -4220,7 +4228,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="21" t="s">
+      <c r="A252" s="25" t="s">
         <v>251</v>
       </c>
       <c r="B252">
@@ -4231,7 +4239,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="21" t="s">
+      <c r="A253" s="25" t="s">
         <v>252</v>
       </c>
       <c r="B253">
@@ -4242,7 +4250,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="21" t="s">
+      <c r="A254" s="25" t="s">
         <v>253</v>
       </c>
       <c r="B254">
@@ -4253,7 +4261,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="21" t="s">
+      <c r="A255" s="25" t="s">
         <v>254</v>
       </c>
       <c r="B255">
@@ -4264,7 +4272,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="21" t="s">
+      <c r="A256" s="25" t="s">
         <v>255</v>
       </c>
       <c r="B256">
@@ -4275,7 +4283,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="21" t="s">
+      <c r="A257" s="25" t="s">
         <v>256</v>
       </c>
       <c r="B257">
@@ -4286,7 +4294,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="21" t="s">
+      <c r="A258" s="25" t="s">
         <v>257</v>
       </c>
       <c r="B258">
@@ -4297,7 +4305,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="21" t="s">
+      <c r="A259" s="25" t="s">
         <v>258</v>
       </c>
       <c r="B259">
@@ -4308,7 +4316,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="21" t="s">
+      <c r="A260" s="25" t="s">
         <v>259</v>
       </c>
       <c r="B260">
@@ -4319,7 +4327,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="21" t="s">
+      <c r="A261" s="25" t="s">
         <v>260</v>
       </c>
       <c r="B261">
@@ -4330,7 +4338,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="21" t="s">
+      <c r="A262" s="25" t="s">
         <v>261</v>
       </c>
       <c r="B262">
@@ -4341,7 +4349,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="21" t="s">
+      <c r="A263" s="25" t="s">
         <v>262</v>
       </c>
       <c r="B263">
@@ -4352,7 +4360,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="21" t="s">
+      <c r="A264" s="25" t="s">
         <v>263</v>
       </c>
       <c r="B264">
@@ -4363,7 +4371,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="21" t="s">
+      <c r="A265" s="25" t="s">
         <v>264</v>
       </c>
       <c r="B265">
@@ -4374,7 +4382,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="21" t="s">
+      <c r="A266" s="25" t="s">
         <v>265</v>
       </c>
       <c r="B266">
@@ -4385,7 +4393,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="21" t="s">
+      <c r="A267" s="25" t="s">
         <v>266</v>
       </c>
       <c r="B267">
@@ -4396,7 +4404,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="21" t="s">
+      <c r="A268" s="25" t="s">
         <v>267</v>
       </c>
       <c r="B268">
@@ -4407,7 +4415,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="21" t="s">
+      <c r="A269" s="25" t="s">
         <v>268</v>
       </c>
       <c r="B269">
@@ -4418,7 +4426,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="21" t="s">
+      <c r="A270" s="25" t="s">
         <v>269</v>
       </c>
       <c r="B270">
@@ -4429,7 +4437,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="21" t="s">
+      <c r="A271" s="25" t="s">
         <v>270</v>
       </c>
       <c r="B271">
@@ -4440,7 +4448,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="21" t="s">
+      <c r="A272" s="25" t="s">
         <v>271</v>
       </c>
       <c r="B272">
@@ -4451,7 +4459,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="21" t="s">
+      <c r="A273" s="25" t="s">
         <v>272</v>
       </c>
       <c r="B273">
@@ -4462,7 +4470,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="21" t="s">
+      <c r="A274" s="25" t="s">
         <v>273</v>
       </c>
       <c r="B274">
@@ -4473,7 +4481,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="25" t="s">
         <v>274</v>
       </c>
       <c r="B275">
@@ -4484,7 +4492,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="21" t="s">
+      <c r="A276" s="25" t="s">
         <v>275</v>
       </c>
       <c r="B276">
@@ -4495,7 +4503,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="21" t="s">
+      <c r="A277" s="25" t="s">
         <v>276</v>
       </c>
       <c r="B277">
@@ -4506,7 +4514,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="21" t="s">
+      <c r="A278" s="25" t="s">
         <v>277</v>
       </c>
       <c r="B278">
@@ -4517,7 +4525,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="21" t="s">
+      <c r="A279" s="25" t="s">
         <v>278</v>
       </c>
       <c r="B279">
@@ -4528,7 +4536,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="21" t="s">
+      <c r="A280" s="25" t="s">
         <v>279</v>
       </c>
       <c r="B280">
@@ -4539,7 +4547,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="21" t="s">
+      <c r="A281" s="25" t="s">
         <v>280</v>
       </c>
       <c r="B281">
@@ -4550,7 +4558,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="21" t="s">
+      <c r="A282" s="25" t="s">
         <v>281</v>
       </c>
       <c r="B282">
@@ -4561,7 +4569,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="21" t="s">
+      <c r="A283" s="25" t="s">
         <v>282</v>
       </c>
       <c r="B283">
@@ -4572,7 +4580,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="21" t="s">
+      <c r="A284" s="25" t="s">
         <v>283</v>
       </c>
       <c r="B284">
@@ -4583,7 +4591,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="21" t="s">
+      <c r="A285" s="25" t="s">
         <v>284</v>
       </c>
       <c r="B285">
@@ -4594,7 +4602,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="21" t="s">
+      <c r="A286" s="25" t="s">
         <v>285</v>
       </c>
       <c r="B286">
@@ -4605,7 +4613,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="21" t="s">
+      <c r="A287" s="25" t="s">
         <v>286</v>
       </c>
       <c r="B287">
@@ -4616,7 +4624,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="21" t="s">
+      <c r="A288" s="25" t="s">
         <v>287</v>
       </c>
       <c r="B288">
@@ -4627,7 +4635,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="21" t="s">
+      <c r="A289" s="25" t="s">
         <v>288</v>
       </c>
       <c r="B289">
@@ -4638,7 +4646,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="21" t="s">
+      <c r="A290" s="25" t="s">
         <v>289</v>
       </c>
       <c r="B290">
@@ -4649,7 +4657,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="21" t="s">
+      <c r="A291" s="25" t="s">
         <v>290</v>
       </c>
       <c r="B291">
@@ -4660,7 +4668,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="21" t="s">
+      <c r="A292" s="25" t="s">
         <v>291</v>
       </c>
       <c r="B292">
@@ -4671,7 +4679,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="21" t="s">
+      <c r="A293" s="25" t="s">
         <v>292</v>
       </c>
       <c r="B293">
@@ -4682,7 +4690,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="21" t="s">
+      <c r="A294" s="25" t="s">
         <v>293</v>
       </c>
       <c r="B294">
@@ -4693,7 +4701,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="21" t="s">
+      <c r="A295" s="25" t="s">
         <v>294</v>
       </c>
       <c r="B295">
@@ -4704,7 +4712,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="21" t="s">
+      <c r="A296" s="25" t="s">
         <v>295</v>
       </c>
       <c r="B296">
@@ -4715,7 +4723,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="21" t="s">
+      <c r="A297" s="25" t="s">
         <v>296</v>
       </c>
       <c r="B297">
@@ -4726,7 +4734,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="21" t="s">
+      <c r="A298" s="25" t="s">
         <v>297</v>
       </c>
       <c r="B298">
@@ -4737,7 +4745,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="21" t="s">
+      <c r="A299" s="25" t="s">
         <v>298</v>
       </c>
       <c r="B299">
@@ -4748,7 +4756,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="21" t="s">
+      <c r="A300" s="25" t="s">
         <v>299</v>
       </c>
       <c r="B300">
@@ -4759,7 +4767,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="21" t="s">
+      <c r="A301" s="25" t="s">
         <v>300</v>
       </c>
       <c r="B301">
@@ -4770,7 +4778,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="21" t="s">
+      <c r="A302" s="25" t="s">
         <v>301</v>
       </c>
       <c r="B302">
@@ -4781,7 +4789,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="21" t="s">
+      <c r="A303" s="25" t="s">
         <v>302</v>
       </c>
       <c r="B303">
@@ -4792,7 +4800,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="21" t="s">
+      <c r="A304" s="25" t="s">
         <v>303</v>
       </c>
       <c r="B304">
@@ -4803,7 +4811,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="21" t="s">
+      <c r="A305" s="25" t="s">
         <v>304</v>
       </c>
       <c r="B305">
@@ -4814,7 +4822,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="21" t="s">
+      <c r="A306" s="25" t="s">
         <v>305</v>
       </c>
       <c r="B306">
@@ -4825,7 +4833,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="21" t="s">
+      <c r="A307" s="25" t="s">
         <v>306</v>
       </c>
       <c r="B307">
@@ -4836,7 +4844,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="21" t="s">
+      <c r="A308" s="25" t="s">
         <v>307</v>
       </c>
       <c r="B308">
@@ -4847,7 +4855,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="21" t="s">
+      <c r="A309" s="25" t="s">
         <v>308</v>
       </c>
       <c r="B309">
@@ -4858,7 +4866,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="21" t="s">
+      <c r="A310" s="25" t="s">
         <v>309</v>
       </c>
       <c r="B310">
@@ -4869,7 +4877,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="21" t="s">
+      <c r="A311" s="25" t="s">
         <v>310</v>
       </c>
       <c r="B311">
@@ -4880,7 +4888,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="21" t="s">
+      <c r="A312" s="25" t="s">
         <v>311</v>
       </c>
       <c r="B312">
@@ -4891,7 +4899,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="21" t="s">
+      <c r="A313" s="25" t="s">
         <v>312</v>
       </c>
       <c r="B313">
@@ -4902,7 +4910,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="21" t="s">
+      <c r="A314" s="25" t="s">
         <v>313</v>
       </c>
       <c r="B314">
@@ -4913,7 +4921,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="21" t="s">
+      <c r="A315" s="25" t="s">
         <v>314</v>
       </c>
       <c r="B315">
@@ -4924,7 +4932,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="21" t="s">
+      <c r="A316" s="25" t="s">
         <v>315</v>
       </c>
       <c r="B316">
@@ -4935,7 +4943,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="21" t="s">
+      <c r="A317" s="25" t="s">
         <v>316</v>
       </c>
       <c r="B317">
@@ -4946,7 +4954,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="21" t="s">
+      <c r="A318" s="25" t="s">
         <v>317</v>
       </c>
       <c r="B318">
@@ -4957,7 +4965,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="21" t="s">
+      <c r="A319" s="25" t="s">
         <v>318</v>
       </c>
       <c r="B319">
@@ -4968,7 +4976,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="21" t="s">
+      <c r="A320" s="25" t="s">
         <v>319</v>
       </c>
       <c r="B320">
@@ -4979,7 +4987,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="21" t="s">
+      <c r="A321" s="25" t="s">
         <v>320</v>
       </c>
       <c r="B321">
@@ -4990,7 +4998,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="21" t="s">
+      <c r="A322" s="25" t="s">
         <v>321</v>
       </c>
       <c r="B322">
@@ -5001,7 +5009,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="21" t="s">
+      <c r="A323" s="25" t="s">
         <v>322</v>
       </c>
       <c r="B323">
@@ -5012,7 +5020,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="21" t="s">
+      <c r="A324" s="25" t="s">
         <v>323</v>
       </c>
       <c r="B324">
@@ -5023,7 +5031,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="21" t="s">
+      <c r="A325" s="25" t="s">
         <v>324</v>
       </c>
       <c r="B325">
@@ -5034,7 +5042,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="21" t="s">
+      <c r="A326" s="25" t="s">
         <v>325</v>
       </c>
       <c r="B326">
@@ -5045,7 +5053,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="21" t="s">
+      <c r="A327" s="25" t="s">
         <v>326</v>
       </c>
       <c r="B327">
@@ -5056,7 +5064,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="21" t="s">
+      <c r="A328" s="25" t="s">
         <v>327</v>
       </c>
       <c r="B328">
@@ -5067,7 +5075,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="21" t="s">
+      <c r="A329" s="25" t="s">
         <v>328</v>
       </c>
       <c r="B329">
@@ -5078,7 +5086,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="21" t="s">
+      <c r="A330" s="25" t="s">
         <v>329</v>
       </c>
       <c r="B330">
@@ -5089,7 +5097,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="21" t="s">
+      <c r="A331" s="25" t="s">
         <v>330</v>
       </c>
       <c r="B331">
@@ -5100,7 +5108,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="21" t="s">
+      <c r="A332" s="25" t="s">
         <v>331</v>
       </c>
       <c r="B332">
@@ -5111,7 +5119,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="21" t="s">
+      <c r="A333" s="25" t="s">
         <v>332</v>
       </c>
       <c r="B333">
@@ -5122,7 +5130,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="21" t="s">
+      <c r="A334" s="25" t="s">
         <v>333</v>
       </c>
       <c r="B334">
@@ -5133,7 +5141,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="21" t="s">
+      <c r="A335" s="25" t="s">
         <v>334</v>
       </c>
       <c r="B335">
@@ -5144,7 +5152,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="25" t="s">
         <v>335</v>
       </c>
       <c r="B336">
@@ -5155,7 +5163,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="21" t="s">
+      <c r="A337" s="25" t="s">
         <v>336</v>
       </c>
       <c r="B337">
@@ -5166,7 +5174,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="21" t="s">
+      <c r="A338" s="25" t="s">
         <v>337</v>
       </c>
       <c r="B338">
@@ -5177,7 +5185,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="21" t="s">
+      <c r="A339" s="25" t="s">
         <v>338</v>
       </c>
       <c r="B339">
@@ -5188,7 +5196,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="21" t="s">
+      <c r="A340" s="25" t="s">
         <v>339</v>
       </c>
       <c r="B340">
@@ -5199,7 +5207,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="21" t="s">
+      <c r="A341" s="25" t="s">
         <v>340</v>
       </c>
       <c r="B341">
@@ -5210,7 +5218,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="21" t="s">
+      <c r="A342" s="25" t="s">
         <v>341</v>
       </c>
       <c r="B342">
@@ -5221,7 +5229,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="21" t="s">
+      <c r="A343" s="25" t="s">
         <v>342</v>
       </c>
       <c r="B343">
@@ -5232,7 +5240,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="21" t="s">
+      <c r="A344" s="25" t="s">
         <v>343</v>
       </c>
       <c r="B344">
@@ -5243,7 +5251,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="21" t="s">
+      <c r="A345" s="25" t="s">
         <v>344</v>
       </c>
       <c r="B345">
@@ -5254,7 +5262,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="21" t="s">
+      <c r="A346" s="25" t="s">
         <v>345</v>
       </c>
       <c r="B346">
@@ -5265,7 +5273,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="21" t="s">
+      <c r="A347" s="25" t="s">
         <v>346</v>
       </c>
       <c r="B347">
@@ -5276,7 +5284,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="21" t="s">
+      <c r="A348" s="25" t="s">
         <v>347</v>
       </c>
       <c r="B348">
@@ -5287,7 +5295,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="21" t="s">
+      <c r="A349" s="25" t="s">
         <v>348</v>
       </c>
       <c r="B349">
@@ -5298,7 +5306,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="21" t="s">
+      <c r="A350" s="25" t="s">
         <v>349</v>
       </c>
       <c r="B350">
@@ -5309,7 +5317,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="21" t="s">
+      <c r="A351" s="25" t="s">
         <v>350</v>
       </c>
       <c r="B351">
@@ -5320,7 +5328,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="21" t="s">
+      <c r="A352" s="25" t="s">
         <v>351</v>
       </c>
       <c r="B352">
@@ -5331,7 +5339,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="21" t="s">
+      <c r="A353" s="25" t="s">
         <v>352</v>
       </c>
       <c r="B353">
@@ -5342,7 +5350,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="21" t="s">
+      <c r="A354" s="25" t="s">
         <v>353</v>
       </c>
       <c r="B354">
@@ -5353,7 +5361,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="21" t="s">
+      <c r="A355" s="25" t="s">
         <v>354</v>
       </c>
       <c r="B355">
@@ -5364,7 +5372,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="21" t="s">
+      <c r="A356" s="25" t="s">
         <v>355</v>
       </c>
       <c r="B356">
@@ -5375,7 +5383,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="21" t="s">
+      <c r="A357" s="25" t="s">
         <v>356</v>
       </c>
       <c r="B357">
@@ -5386,7 +5394,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="21" t="s">
+      <c r="A358" s="25" t="s">
         <v>357</v>
       </c>
       <c r="B358">
@@ -5397,7 +5405,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="21" t="s">
+      <c r="A359" s="25" t="s">
         <v>358</v>
       </c>
       <c r="B359">
@@ -5408,7 +5416,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="21" t="s">
+      <c r="A360" s="25" t="s">
         <v>359</v>
       </c>
       <c r="B360">
@@ -5419,7 +5427,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="21" t="s">
+      <c r="A361" s="25" t="s">
         <v>360</v>
       </c>
       <c r="B361">
@@ -5430,7 +5438,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="21" t="s">
+      <c r="A362" s="25" t="s">
         <v>361</v>
       </c>
       <c r="B362">
@@ -5441,7 +5449,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="21" t="s">
+      <c r="A363" s="25" t="s">
         <v>362</v>
       </c>
       <c r="B363">
@@ -5452,7 +5460,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="21" t="s">
+      <c r="A364" s="25" t="s">
         <v>363</v>
       </c>
       <c r="B364">
@@ -5463,7 +5471,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="21" t="s">
+      <c r="A365" s="25" t="s">
         <v>364</v>
       </c>
       <c r="B365">
@@ -5474,7 +5482,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="21" t="s">
+      <c r="A366" s="25" t="s">
         <v>365</v>
       </c>
       <c r="B366">
@@ -5485,7 +5493,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="21" t="s">
+      <c r="A367" s="25" t="s">
         <v>366</v>
       </c>
       <c r="B367">
@@ -5496,7 +5504,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="21" t="s">
+      <c r="A368" s="25" t="s">
         <v>367</v>
       </c>
       <c r="B368">
@@ -5507,7 +5515,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="21" t="s">
+      <c r="A369" s="25" t="s">
         <v>368</v>
       </c>
       <c r="B369">
@@ -5518,7 +5526,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="21" t="s">
+      <c r="A370" s="25" t="s">
         <v>369</v>
       </c>
       <c r="B370">
@@ -5529,7 +5537,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="21" t="s">
+      <c r="A371" s="25" t="s">
         <v>370</v>
       </c>
       <c r="B371">
@@ -5540,7 +5548,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="21" t="s">
+      <c r="A372" s="25" t="s">
         <v>371</v>
       </c>
       <c r="B372">
@@ -5551,7 +5559,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="21" t="s">
+      <c r="A373" s="25" t="s">
         <v>372</v>
       </c>
       <c r="B373">
@@ -5562,7 +5570,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="21" t="s">
+      <c r="A374" s="25" t="s">
         <v>373</v>
       </c>
       <c r="B374">
@@ -5573,7 +5581,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="21" t="s">
+      <c r="A375" s="25" t="s">
         <v>374</v>
       </c>
       <c r="B375">
@@ -5584,7 +5592,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="21" t="s">
+      <c r="A376" s="25" t="s">
         <v>375</v>
       </c>
       <c r="B376">
@@ -5595,7 +5603,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="21" t="s">
+      <c r="A377" s="25" t="s">
         <v>376</v>
       </c>
       <c r="B377">
@@ -5606,7 +5614,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="21" t="s">
+      <c r="A378" s="25" t="s">
         <v>377</v>
       </c>
       <c r="B378">
@@ -5617,7 +5625,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="21" t="s">
+      <c r="A379" s="25" t="s">
         <v>378</v>
       </c>
       <c r="B379">
@@ -5628,7 +5636,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="21" t="s">
+      <c r="A380" s="25" t="s">
         <v>379</v>
       </c>
       <c r="B380">
@@ -5639,7 +5647,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="21" t="s">
+      <c r="A381" s="25" t="s">
         <v>380</v>
       </c>
       <c r="B381">
@@ -5650,7 +5658,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="21" t="s">
+      <c r="A382" s="25" t="s">
         <v>381</v>
       </c>
       <c r="B382">
@@ -5661,7 +5669,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="21" t="s">
+      <c r="A383" s="25" t="s">
         <v>382</v>
       </c>
       <c r="B383">
@@ -5672,7 +5680,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="21" t="s">
+      <c r="A384" s="25" t="s">
         <v>383</v>
       </c>
       <c r="B384">
@@ -5683,7 +5691,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="21" t="s">
+      <c r="A385" s="25" t="s">
         <v>384</v>
       </c>
       <c r="B385">
@@ -5694,7 +5702,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="21" t="s">
+      <c r="A386" s="25" t="s">
         <v>385</v>
       </c>
       <c r="B386">
@@ -5705,7 +5713,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="21" t="s">
+      <c r="A387" s="25" t="s">
         <v>386</v>
       </c>
       <c r="B387">
@@ -5716,7 +5724,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="21" t="s">
+      <c r="A388" s="25" t="s">
         <v>387</v>
       </c>
       <c r="B388">
@@ -5727,7 +5735,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="21" t="s">
+      <c r="A389" s="25" t="s">
         <v>388</v>
       </c>
       <c r="B389">
@@ -5738,7 +5746,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="21" t="s">
+      <c r="A390" s="25" t="s">
         <v>389</v>
       </c>
       <c r="B390">
@@ -5749,7 +5757,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="21" t="s">
+      <c r="A391" s="25" t="s">
         <v>390</v>
       </c>
       <c r="B391">
@@ -5760,7 +5768,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="21" t="s">
+      <c r="A392" s="25" t="s">
         <v>391</v>
       </c>
       <c r="B392">
@@ -5771,7 +5779,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="21" t="s">
+      <c r="A393" s="25" t="s">
         <v>392</v>
       </c>
       <c r="B393">
@@ -5782,7 +5790,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="21" t="s">
+      <c r="A394" s="25" t="s">
         <v>393</v>
       </c>
       <c r="B394">
@@ -5793,7 +5801,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="21" t="s">
+      <c r="A395" s="25" t="s">
         <v>394</v>
       </c>
       <c r="B395">
@@ -5804,7 +5812,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="21" t="s">
+      <c r="A396" s="25" t="s">
         <v>395</v>
       </c>
       <c r="B396">
@@ -5815,7 +5823,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="21" t="s">
+      <c r="A397" s="25" t="s">
         <v>396</v>
       </c>
       <c r="B397">
@@ -5826,7 +5834,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="21" t="s">
+      <c r="A398" s="25" t="s">
         <v>397</v>
       </c>
       <c r="B398">
@@ -5837,7 +5845,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="21" t="s">
+      <c r="A399" s="25" t="s">
         <v>398</v>
       </c>
       <c r="B399">
@@ -5848,7 +5856,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="21" t="s">
+      <c r="A400" s="25" t="s">
         <v>399</v>
       </c>
       <c r="B400">
@@ -5859,7 +5867,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="21" t="s">
+      <c r="A401" s="25" t="s">
         <v>400</v>
       </c>
       <c r="B401">
@@ -5870,7 +5878,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="21" t="s">
+      <c r="A402" s="25" t="s">
         <v>401</v>
       </c>
       <c r="B402">
@@ -5881,7 +5889,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="21" t="s">
+      <c r="A403" s="25" t="s">
         <v>402</v>
       </c>
       <c r="B403">
@@ -5892,7 +5900,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="21" t="s">
+      <c r="A404" s="25" t="s">
         <v>403</v>
       </c>
       <c r="B404">
@@ -5903,7 +5911,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="21" t="s">
+      <c r="A405" s="25" t="s">
         <v>404</v>
       </c>
       <c r="B405">
@@ -5914,7 +5922,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="21" t="s">
+      <c r="A406" s="25" t="s">
         <v>405</v>
       </c>
       <c r="B406">
@@ -5925,7 +5933,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="21" t="s">
+      <c r="A407" s="25" t="s">
         <v>406</v>
       </c>
       <c r="B407">
@@ -5936,7 +5944,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="21" t="s">
+      <c r="A408" s="25" t="s">
         <v>407</v>
       </c>
       <c r="B408">
@@ -5947,7 +5955,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="21" t="s">
+      <c r="A409" s="25" t="s">
         <v>408</v>
       </c>
       <c r="B409">
@@ -5958,7 +5966,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="21" t="s">
+      <c r="A410" s="25" t="s">
         <v>409</v>
       </c>
       <c r="B410">
@@ -5969,7 +5977,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="21" t="s">
+      <c r="A411" s="25" t="s">
         <v>410</v>
       </c>
       <c r="B411">
@@ -5980,7 +5988,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="21" t="s">
+      <c r="A412" s="25" t="s">
         <v>411</v>
       </c>
       <c r="B412">
@@ -5991,7 +5999,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="21" t="s">
+      <c r="A413" s="25" t="s">
         <v>412</v>
       </c>
       <c r="B413">
@@ -6002,7 +6010,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="21" t="s">
+      <c r="A414" s="25" t="s">
         <v>413</v>
       </c>
       <c r="B414">
@@ -6013,7 +6021,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="21" t="s">
+      <c r="A415" s="25" t="s">
         <v>414</v>
       </c>
       <c r="B415">
@@ -6024,7 +6032,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="21" t="s">
+      <c r="A416" s="25" t="s">
         <v>415</v>
       </c>
       <c r="B416">
@@ -6035,7 +6043,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="21" t="s">
+      <c r="A417" s="25" t="s">
         <v>416</v>
       </c>
       <c r="B417">
@@ -6046,7 +6054,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="21" t="s">
+      <c r="A418" s="25" t="s">
         <v>417</v>
       </c>
       <c r="B418">
@@ -6057,7 +6065,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="21" t="s">
+      <c r="A419" s="25" t="s">
         <v>418</v>
       </c>
       <c r="B419">
@@ -6068,7 +6076,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="21" t="s">
+      <c r="A420" s="25" t="s">
         <v>419</v>
       </c>
       <c r="B420">
@@ -6079,7 +6087,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="21" t="s">
+      <c r="A421" s="25" t="s">
         <v>420</v>
       </c>
       <c r="B421">
@@ -6090,7 +6098,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="21" t="s">
+      <c r="A422" s="25" t="s">
         <v>421</v>
       </c>
       <c r="B422">
@@ -6101,7 +6109,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="21" t="s">
+      <c r="A423" s="25" t="s">
         <v>422</v>
       </c>
       <c r="B423">
@@ -6112,7 +6120,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="21" t="s">
+      <c r="A424" s="25" t="s">
         <v>423</v>
       </c>
       <c r="B424">
@@ -6123,7 +6131,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="21" t="s">
+      <c r="A425" s="25" t="s">
         <v>424</v>
       </c>
       <c r="B425">
@@ -6134,7 +6142,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="21" t="s">
+      <c r="A426" s="25" t="s">
         <v>425</v>
       </c>
       <c r="B426">
@@ -6145,7 +6153,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="21" t="s">
+      <c r="A427" s="25" t="s">
         <v>426</v>
       </c>
       <c r="B427">
@@ -6156,7 +6164,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="21" t="s">
+      <c r="A428" s="25" t="s">
         <v>427</v>
       </c>
       <c r="B428">
@@ -6167,7 +6175,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="21" t="s">
+      <c r="A429" s="25" t="s">
         <v>428</v>
       </c>
       <c r="B429">
@@ -6178,7 +6186,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="21" t="s">
+      <c r="A430" s="25" t="s">
         <v>429</v>
       </c>
       <c r="B430">
@@ -6189,7 +6197,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="21" t="s">
+      <c r="A431" s="25" t="s">
         <v>430</v>
       </c>
       <c r="B431">
@@ -6200,7 +6208,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="21" t="s">
+      <c r="A432" s="25" t="s">
         <v>431</v>
       </c>
       <c r="B432">
@@ -6211,7 +6219,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="21" t="s">
+      <c r="A433" s="25" t="s">
         <v>432</v>
       </c>
       <c r="B433">
@@ -6222,7 +6230,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="21" t="s">
+      <c r="A434" s="25" t="s">
         <v>433</v>
       </c>
       <c r="B434">
@@ -6233,7 +6241,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="21" t="s">
+      <c r="A435" s="25" t="s">
         <v>434</v>
       </c>
       <c r="B435">
@@ -6244,7 +6252,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="21" t="s">
+      <c r="A436" s="25" t="s">
         <v>435</v>
       </c>
       <c r="B436">
@@ -6255,7 +6263,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="21" t="s">
+      <c r="A437" s="25" t="s">
         <v>436</v>
       </c>
       <c r="B437">
@@ -6266,7 +6274,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="21" t="s">
+      <c r="A438" s="25" t="s">
         <v>437</v>
       </c>
       <c r="B438">
@@ -6277,7 +6285,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="21" t="s">
+      <c r="A439" s="25" t="s">
         <v>438</v>
       </c>
       <c r="B439">
@@ -6288,7 +6296,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="21" t="s">
+      <c r="A440" s="25" t="s">
         <v>439</v>
       </c>
       <c r="B440">
@@ -6299,7 +6307,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="21" t="s">
+      <c r="A441" s="25" t="s">
         <v>440</v>
       </c>
       <c r="B441">
@@ -6310,7 +6318,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="21" t="s">
+      <c r="A442" s="25" t="s">
         <v>441</v>
       </c>
       <c r="B442">
@@ -6321,7 +6329,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="21" t="s">
+      <c r="A443" s="25" t="s">
         <v>442</v>
       </c>
       <c r="B443">
@@ -6332,7 +6340,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="21" t="s">
+      <c r="A444" s="25" t="s">
         <v>443</v>
       </c>
       <c r="B444">
@@ -6343,7 +6351,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="21" t="s">
+      <c r="A445" s="25" t="s">
         <v>444</v>
       </c>
       <c r="B445">
@@ -6354,7 +6362,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="21" t="s">
+      <c r="A446" s="25" t="s">
         <v>445</v>
       </c>
       <c r="B446">
@@ -6365,7 +6373,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="21" t="s">
+      <c r="A447" s="25" t="s">
         <v>446</v>
       </c>
       <c r="B447">
@@ -6376,7 +6384,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="21" t="s">
+      <c r="A448" s="25" t="s">
         <v>447</v>
       </c>
       <c r="B448">

--- a/SourceDataTables/FigS12b.xlsx
+++ b/SourceDataTables/FigS12b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5850" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="450">
   <si>
     <t>Gene</t>
   </si>
@@ -1383,7 +1383,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1397,31 +1397,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1429,26 +1409,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1467,18 +1427,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="5" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1489,7 +1449,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1500,7 +1460,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1511,7 +1471,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1522,7 +1482,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1533,7 +1493,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1544,7 +1504,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1555,7 +1515,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1566,7 +1526,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1577,7 +1537,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1588,7 +1548,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1599,7 +1559,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1610,7 +1570,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1621,7 +1581,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1632,7 +1592,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1643,7 +1603,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1654,7 +1614,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1665,7 +1625,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1676,7 +1636,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1687,7 +1647,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1698,7 +1658,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1709,7 +1669,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1720,7 +1680,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1731,7 +1691,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1742,7 +1702,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1753,7 +1713,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1764,7 +1724,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1775,7 +1735,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1786,7 +1746,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1797,7 +1757,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1808,7 +1768,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1819,7 +1779,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1830,7 +1790,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1841,7 +1801,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1852,7 +1812,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1863,7 +1823,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1874,7 +1834,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1885,7 +1845,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1896,7 +1856,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1907,7 +1867,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1918,7 +1878,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1929,7 +1889,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1940,7 +1900,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1951,7 +1911,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1962,7 +1922,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1973,7 +1933,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1984,7 +1944,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1995,7 +1955,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -2006,7 +1966,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -2017,7 +1977,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -2028,7 +1988,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -2039,7 +1999,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -2050,7 +2010,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -2061,7 +2021,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -2072,7 +2032,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -2083,7 +2043,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -2094,7 +2054,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -2105,7 +2065,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -2116,7 +2076,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -2127,7 +2087,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -2138,7 +2098,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -2149,7 +2109,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -2160,7 +2120,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -2171,7 +2131,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -2182,7 +2142,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -2193,7 +2153,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -2204,7 +2164,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -2215,7 +2175,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -2226,7 +2186,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -2237,7 +2197,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -2248,7 +2208,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -2259,7 +2219,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -2270,7 +2230,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -2281,7 +2241,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -2292,7 +2252,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -2303,7 +2263,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -2314,7 +2274,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -2325,7 +2285,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -2336,7 +2296,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -2347,7 +2307,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -2358,7 +2318,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -2369,7 +2329,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -2380,7 +2340,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -2391,7 +2351,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -2402,7 +2362,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -2413,7 +2373,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -2424,7 +2384,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -2435,7 +2395,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -2446,7 +2406,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -2457,7 +2417,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -2468,7 +2428,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -2479,7 +2439,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -2490,7 +2450,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -2501,7 +2461,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -2512,7 +2472,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -2523,7 +2483,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -2534,7 +2494,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -2545,7 +2505,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -2556,7 +2516,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -2567,7 +2527,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -2578,7 +2538,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -2589,7 +2549,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -2600,7 +2560,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -2611,7 +2571,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -2622,7 +2582,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -2633,7 +2593,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -2644,7 +2604,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -2655,7 +2615,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -2666,7 +2626,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="25" t="s">
+      <c r="A110" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -2677,7 +2637,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -2688,7 +2648,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="25" t="s">
+      <c r="A112" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -2699,7 +2659,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -2710,7 +2670,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -2721,7 +2681,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -2732,7 +2692,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -2743,7 +2703,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -2754,7 +2714,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -2765,7 +2725,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -2776,7 +2736,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="25" t="s">
+      <c r="A120" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -2787,7 +2747,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="25" t="s">
+      <c r="A121" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -2798,7 +2758,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="25" t="s">
+      <c r="A122" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -2809,7 +2769,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -2820,7 +2780,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="25" t="s">
+      <c r="A124" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -2831,7 +2791,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -2842,7 +2802,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -2853,7 +2813,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -2864,7 +2824,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -2875,7 +2835,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="25" t="s">
+      <c r="A129" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -2886,7 +2846,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="25" t="s">
+      <c r="A130" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -2897,7 +2857,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="25" t="s">
+      <c r="A131" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -2908,7 +2868,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -2919,7 +2879,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="25" t="s">
+      <c r="A133" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -2930,7 +2890,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="25" t="s">
+      <c r="A134" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -2941,7 +2901,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="25" t="s">
+      <c r="A135" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -2952,7 +2912,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="25" t="s">
+      <c r="A136" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -2963,7 +2923,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="25" t="s">
+      <c r="A137" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -2974,7 +2934,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="25" t="s">
+      <c r="A138" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -2985,7 +2945,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -2996,7 +2956,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="25" t="s">
+      <c r="A140" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -3007,7 +2967,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="25" t="s">
+      <c r="A141" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -3018,7 +2978,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -3029,7 +2989,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="25" t="s">
+      <c r="A143" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -3040,7 +3000,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="25" t="s">
+      <c r="A144" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -3051,7 +3011,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="25" t="s">
+      <c r="A145" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -3062,7 +3022,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="25" t="s">
+      <c r="A146" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -3073,7 +3033,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="25" t="s">
+      <c r="A147" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -3084,7 +3044,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="25" t="s">
+      <c r="A148" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -3095,7 +3055,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -3106,7 +3066,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="25" t="s">
+      <c r="A150" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -3117,7 +3077,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="25" t="s">
+      <c r="A151" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -3128,7 +3088,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="25" t="s">
+      <c r="A152" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -3139,7 +3099,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="25" t="s">
+      <c r="A153" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -3150,7 +3110,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -3161,7 +3121,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="25" t="s">
+      <c r="A155" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -3172,7 +3132,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="25" t="s">
+      <c r="A156" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -3183,7 +3143,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="25" t="s">
+      <c r="A157" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -3194,7 +3154,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="25" t="s">
+      <c r="A158" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -3205,7 +3165,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="25" t="s">
+      <c r="A159" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -3216,7 +3176,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="25" t="s">
+      <c r="A160" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -3227,7 +3187,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="25" t="s">
+      <c r="A161" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -3238,7 +3198,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -3249,7 +3209,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="25" t="s">
+      <c r="A163" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -3260,7 +3220,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="25" t="s">
+      <c r="A164" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -3271,7 +3231,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="25" t="s">
+      <c r="A165" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -3282,7 +3242,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="25" t="s">
+      <c r="A166" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -3293,7 +3253,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="25" t="s">
+      <c r="A167" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -3304,7 +3264,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -3315,7 +3275,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="25" t="s">
+      <c r="A169" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -3326,7 +3286,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="25" t="s">
+      <c r="A170" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -3337,7 +3297,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -3348,7 +3308,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -3359,7 +3319,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -3370,7 +3330,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="25" t="s">
+      <c r="A174" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -3381,7 +3341,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="25" t="s">
+      <c r="A175" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -3392,7 +3352,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="25" t="s">
+      <c r="A176" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -3403,7 +3363,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="25" t="s">
+      <c r="A177" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -3414,7 +3374,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="25" t="s">
+      <c r="A178" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -3425,7 +3385,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="25" t="s">
+      <c r="A179" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -3436,7 +3396,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="25" t="s">
+      <c r="A180" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -3447,7 +3407,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="25" t="s">
+      <c r="A181" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -3458,7 +3418,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="25" t="s">
+      <c r="A182" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -3469,7 +3429,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="25" t="s">
+      <c r="A183" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -3480,7 +3440,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="25" t="s">
+      <c r="A184" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -3491,7 +3451,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="25" t="s">
+      <c r="A185" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -3502,7 +3462,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="25" t="s">
+      <c r="A186" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -3513,7 +3473,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="25" t="s">
+      <c r="A187" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -3524,7 +3484,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="25" t="s">
+      <c r="A188" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -3535,7 +3495,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="25" t="s">
+      <c r="A189" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -3546,7 +3506,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="25" t="s">
+      <c r="A190" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -3557,7 +3517,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="25" t="s">
+      <c r="A191" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -3568,7 +3528,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="25" t="s">
+      <c r="A192" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -3579,7 +3539,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="25" t="s">
+      <c r="A193" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -3590,7 +3550,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="25" t="s">
+      <c r="A194" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -3601,7 +3561,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="25" t="s">
+      <c r="A195" s="5" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -3612,7 +3572,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="25" t="s">
+      <c r="A196" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -3623,7 +3583,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="25" t="s">
+      <c r="A197" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -3634,7 +3594,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="25" t="s">
+      <c r="A198" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -3645,7 +3605,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="25" t="s">
+      <c r="A199" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -3656,7 +3616,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="25" t="s">
+      <c r="A200" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -3667,7 +3627,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="25" t="s">
+      <c r="A201" s="5" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -3678,7 +3638,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="25" t="s">
+      <c r="A202" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -3689,7 +3649,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="25" t="s">
+      <c r="A203" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -3700,7 +3660,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="25" t="s">
+      <c r="A204" s="5" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -3711,7 +3671,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="25" t="s">
+      <c r="A205" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -3722,7 +3682,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="25" t="s">
+      <c r="A206" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -3733,7 +3693,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="25" t="s">
+      <c r="A207" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -3744,7 +3704,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="25" t="s">
+      <c r="A208" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -3755,7 +3715,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="25" t="s">
+      <c r="A209" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -3766,7 +3726,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="25" t="s">
+      <c r="A210" s="5" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -3777,7 +3737,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="25" t="s">
+      <c r="A211" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -3788,7 +3748,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="25" t="s">
+      <c r="A212" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -3799,7 +3759,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="25" t="s">
+      <c r="A213" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B213">
@@ -3810,7 +3770,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="25" t="s">
+      <c r="A214" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B214">
@@ -3821,7 +3781,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="25" t="s">
+      <c r="A215" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B215">
@@ -3832,7 +3792,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="25" t="s">
+      <c r="A216" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B216">
@@ -3843,7 +3803,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="25" t="s">
+      <c r="A217" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B217">
@@ -3854,7 +3814,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="25" t="s">
+      <c r="A218" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B218">
@@ -3865,7 +3825,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="25" t="s">
+      <c r="A219" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B219">
@@ -3876,7 +3836,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="25" t="s">
+      <c r="A220" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B220">
@@ -3887,7 +3847,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="25" t="s">
+      <c r="A221" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B221">
@@ -3898,7 +3858,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="25" t="s">
+      <c r="A222" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B222">
@@ -3909,7 +3869,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="25" t="s">
+      <c r="A223" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B223">
@@ -3920,7 +3880,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="25" t="s">
+      <c r="A224" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B224">
@@ -3931,7 +3891,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="25" t="s">
+      <c r="A225" s="5" t="s">
         <v>224</v>
       </c>
       <c r="B225">
@@ -3942,7 +3902,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="25" t="s">
+      <c r="A226" s="5" t="s">
         <v>225</v>
       </c>
       <c r="B226">
@@ -3953,7 +3913,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="25" t="s">
+      <c r="A227" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B227">
@@ -3964,7 +3924,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="25" t="s">
+      <c r="A228" s="5" t="s">
         <v>227</v>
       </c>
       <c r="B228">
@@ -3975,7 +3935,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="25" t="s">
+      <c r="A229" s="5" t="s">
         <v>228</v>
       </c>
       <c r="B229">
@@ -3986,7 +3946,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="25" t="s">
+      <c r="A230" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B230">
@@ -3997,7 +3957,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="25" t="s">
+      <c r="A231" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B231">
@@ -4008,7 +3968,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="25" t="s">
+      <c r="A232" s="5" t="s">
         <v>231</v>
       </c>
       <c r="B232">
@@ -4019,7 +3979,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="25" t="s">
+      <c r="A233" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B233">
@@ -4030,7 +3990,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="25" t="s">
+      <c r="A234" s="5" t="s">
         <v>233</v>
       </c>
       <c r="B234">
@@ -4041,7 +4001,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="25" t="s">
+      <c r="A235" s="5" t="s">
         <v>234</v>
       </c>
       <c r="B235">
@@ -4052,7 +4012,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="25" t="s">
+      <c r="A236" s="5" t="s">
         <v>235</v>
       </c>
       <c r="B236">
@@ -4063,7 +4023,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="25" t="s">
+      <c r="A237" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B237">
@@ -4074,7 +4034,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="25" t="s">
+      <c r="A238" s="5" t="s">
         <v>237</v>
       </c>
       <c r="B238">
@@ -4085,7 +4045,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="25" t="s">
+      <c r="A239" s="5" t="s">
         <v>238</v>
       </c>
       <c r="B239">
@@ -4096,7 +4056,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="25" t="s">
+      <c r="A240" s="5" t="s">
         <v>239</v>
       </c>
       <c r="B240">
@@ -4107,7 +4067,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="25" t="s">
+      <c r="A241" s="5" t="s">
         <v>240</v>
       </c>
       <c r="B241">
@@ -4118,7 +4078,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="25" t="s">
+      <c r="A242" s="5" t="s">
         <v>241</v>
       </c>
       <c r="B242">
@@ -4129,7 +4089,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="25" t="s">
+      <c r="A243" s="5" t="s">
         <v>242</v>
       </c>
       <c r="B243">
@@ -4140,7 +4100,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="25" t="s">
+      <c r="A244" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B244">
@@ -4151,7 +4111,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="25" t="s">
+      <c r="A245" s="5" t="s">
         <v>244</v>
       </c>
       <c r="B245">
@@ -4162,7 +4122,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="25" t="s">
+      <c r="A246" s="5" t="s">
         <v>245</v>
       </c>
       <c r="B246">
@@ -4173,7 +4133,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="25" t="s">
+      <c r="A247" s="5" t="s">
         <v>246</v>
       </c>
       <c r="B247">
@@ -4184,7 +4144,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="25" t="s">
+      <c r="A248" s="5" t="s">
         <v>247</v>
       </c>
       <c r="B248">
@@ -4195,7 +4155,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="25" t="s">
+      <c r="A249" s="5" t="s">
         <v>248</v>
       </c>
       <c r="B249">
@@ -4206,7 +4166,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="25" t="s">
+      <c r="A250" s="5" t="s">
         <v>249</v>
       </c>
       <c r="B250">
@@ -4217,7 +4177,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="25" t="s">
+      <c r="A251" s="5" t="s">
         <v>250</v>
       </c>
       <c r="B251">
@@ -4228,7 +4188,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="25" t="s">
+      <c r="A252" s="5" t="s">
         <v>251</v>
       </c>
       <c r="B252">
@@ -4239,7 +4199,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="25" t="s">
+      <c r="A253" s="5" t="s">
         <v>252</v>
       </c>
       <c r="B253">
@@ -4250,7 +4210,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="25" t="s">
+      <c r="A254" s="5" t="s">
         <v>253</v>
       </c>
       <c r="B254">
@@ -4261,7 +4221,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="25" t="s">
+      <c r="A255" s="5" t="s">
         <v>254</v>
       </c>
       <c r="B255">
@@ -4272,7 +4232,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="25" t="s">
+      <c r="A256" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B256">
@@ -4283,7 +4243,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="25" t="s">
+      <c r="A257" s="5" t="s">
         <v>256</v>
       </c>
       <c r="B257">
@@ -4294,7 +4254,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="25" t="s">
+      <c r="A258" s="5" t="s">
         <v>257</v>
       </c>
       <c r="B258">
@@ -4305,7 +4265,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="25" t="s">
+      <c r="A259" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B259">
@@ -4316,7 +4276,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="25" t="s">
+      <c r="A260" s="5" t="s">
         <v>259</v>
       </c>
       <c r="B260">
@@ -4327,7 +4287,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="25" t="s">
+      <c r="A261" s="5" t="s">
         <v>260</v>
       </c>
       <c r="B261">
@@ -4338,7 +4298,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="25" t="s">
+      <c r="A262" s="5" t="s">
         <v>261</v>
       </c>
       <c r="B262">
@@ -4349,7 +4309,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="25" t="s">
+      <c r="A263" s="5" t="s">
         <v>262</v>
       </c>
       <c r="B263">
@@ -4360,7 +4320,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="25" t="s">
+      <c r="A264" s="5" t="s">
         <v>263</v>
       </c>
       <c r="B264">
@@ -4371,7 +4331,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="25" t="s">
+      <c r="A265" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B265">
@@ -4382,7 +4342,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="25" t="s">
+      <c r="A266" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B266">
@@ -4393,7 +4353,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="25" t="s">
+      <c r="A267" s="5" t="s">
         <v>266</v>
       </c>
       <c r="B267">
@@ -4404,7 +4364,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="25" t="s">
+      <c r="A268" s="5" t="s">
         <v>267</v>
       </c>
       <c r="B268">
@@ -4415,7 +4375,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="25" t="s">
+      <c r="A269" s="5" t="s">
         <v>268</v>
       </c>
       <c r="B269">
@@ -4426,7 +4386,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="25" t="s">
+      <c r="A270" s="5" t="s">
         <v>269</v>
       </c>
       <c r="B270">
@@ -4437,7 +4397,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="25" t="s">
+      <c r="A271" s="5" t="s">
         <v>270</v>
       </c>
       <c r="B271">
@@ -4448,7 +4408,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="25" t="s">
+      <c r="A272" s="5" t="s">
         <v>271</v>
       </c>
       <c r="B272">
@@ -4459,7 +4419,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="25" t="s">
+      <c r="A273" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B273">
@@ -4470,7 +4430,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="25" t="s">
+      <c r="A274" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B274">
@@ -4481,7 +4441,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="25" t="s">
+      <c r="A275" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B275">
@@ -4492,7 +4452,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="25" t="s">
+      <c r="A276" s="5" t="s">
         <v>275</v>
       </c>
       <c r="B276">
@@ -4503,7 +4463,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="25" t="s">
+      <c r="A277" s="5" t="s">
         <v>276</v>
       </c>
       <c r="B277">
@@ -4514,7 +4474,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="25" t="s">
+      <c r="A278" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B278">
@@ -4525,7 +4485,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="25" t="s">
+      <c r="A279" s="5" t="s">
         <v>278</v>
       </c>
       <c r="B279">
@@ -4536,7 +4496,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="25" t="s">
+      <c r="A280" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B280">
@@ -4547,7 +4507,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="25" t="s">
+      <c r="A281" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B281">
@@ -4558,7 +4518,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="25" t="s">
+      <c r="A282" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B282">
@@ -4569,7 +4529,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="25" t="s">
+      <c r="A283" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B283">
@@ -4580,7 +4540,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="25" t="s">
+      <c r="A284" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B284">
@@ -4591,7 +4551,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="25" t="s">
+      <c r="A285" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B285">
@@ -4602,7 +4562,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="25" t="s">
+      <c r="A286" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B286">
@@ -4613,7 +4573,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="25" t="s">
+      <c r="A287" s="5" t="s">
         <v>286</v>
       </c>
       <c r="B287">
@@ -4624,7 +4584,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="25" t="s">
+      <c r="A288" s="5" t="s">
         <v>287</v>
       </c>
       <c r="B288">
@@ -4635,7 +4595,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="25" t="s">
+      <c r="A289" s="5" t="s">
         <v>288</v>
       </c>
       <c r="B289">
@@ -4646,7 +4606,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="25" t="s">
+      <c r="A290" s="5" t="s">
         <v>289</v>
       </c>
       <c r="B290">
@@ -4657,7 +4617,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="25" t="s">
+      <c r="A291" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B291">
@@ -4668,7 +4628,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="25" t="s">
+      <c r="A292" s="5" t="s">
         <v>291</v>
       </c>
       <c r="B292">
@@ -4679,7 +4639,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="25" t="s">
+      <c r="A293" s="5" t="s">
         <v>292</v>
       </c>
       <c r="B293">
@@ -4690,7 +4650,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="25" t="s">
+      <c r="A294" s="5" t="s">
         <v>293</v>
       </c>
       <c r="B294">
@@ -4701,7 +4661,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="25" t="s">
+      <c r="A295" s="5" t="s">
         <v>294</v>
       </c>
       <c r="B295">
@@ -4712,7 +4672,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="25" t="s">
+      <c r="A296" s="5" t="s">
         <v>295</v>
       </c>
       <c r="B296">
@@ -4723,7 +4683,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="25" t="s">
+      <c r="A297" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B297">
@@ -4734,7 +4694,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="25" t="s">
+      <c r="A298" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B298">
@@ -4745,7 +4705,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="25" t="s">
+      <c r="A299" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B299">
@@ -4756,7 +4716,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="25" t="s">
+      <c r="A300" s="5" t="s">
         <v>299</v>
       </c>
       <c r="B300">
@@ -4767,7 +4727,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="25" t="s">
+      <c r="A301" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B301">
@@ -4778,7 +4738,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="25" t="s">
+      <c r="A302" s="5" t="s">
         <v>301</v>
       </c>
       <c r="B302">
@@ -4789,7 +4749,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="25" t="s">
+      <c r="A303" s="5" t="s">
         <v>302</v>
       </c>
       <c r="B303">
@@ -4800,7 +4760,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="25" t="s">
+      <c r="A304" s="5" t="s">
         <v>303</v>
       </c>
       <c r="B304">
@@ -4811,7 +4771,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="25" t="s">
+      <c r="A305" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B305">
@@ -4822,7 +4782,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="25" t="s">
+      <c r="A306" s="5" t="s">
         <v>305</v>
       </c>
       <c r="B306">
@@ -4833,7 +4793,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="25" t="s">
+      <c r="A307" s="5" t="s">
         <v>306</v>
       </c>
       <c r="B307">
@@ -4844,7 +4804,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="25" t="s">
+      <c r="A308" s="5" t="s">
         <v>307</v>
       </c>
       <c r="B308">
@@ -4855,7 +4815,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="25" t="s">
+      <c r="A309" s="5" t="s">
         <v>308</v>
       </c>
       <c r="B309">
@@ -4866,7 +4826,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="25" t="s">
+      <c r="A310" s="5" t="s">
         <v>309</v>
       </c>
       <c r="B310">
@@ -4877,7 +4837,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="25" t="s">
+      <c r="A311" s="5" t="s">
         <v>310</v>
       </c>
       <c r="B311">
@@ -4888,7 +4848,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="25" t="s">
+      <c r="A312" s="5" t="s">
         <v>311</v>
       </c>
       <c r="B312">
@@ -4899,7 +4859,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="25" t="s">
+      <c r="A313" s="5" t="s">
         <v>312</v>
       </c>
       <c r="B313">
@@ -4910,7 +4870,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="25" t="s">
+      <c r="A314" s="5" t="s">
         <v>313</v>
       </c>
       <c r="B314">
@@ -4921,7 +4881,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="25" t="s">
+      <c r="A315" s="5" t="s">
         <v>314</v>
       </c>
       <c r="B315">
@@ -4932,7 +4892,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="25" t="s">
+      <c r="A316" s="5" t="s">
         <v>315</v>
       </c>
       <c r="B316">
@@ -4943,7 +4903,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="25" t="s">
+      <c r="A317" s="5" t="s">
         <v>316</v>
       </c>
       <c r="B317">
@@ -4954,7 +4914,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="25" t="s">
+      <c r="A318" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B318">
@@ -4965,7 +4925,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="25" t="s">
+      <c r="A319" s="5" t="s">
         <v>318</v>
       </c>
       <c r="B319">
@@ -4976,7 +4936,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="25" t="s">
+      <c r="A320" s="5" t="s">
         <v>319</v>
       </c>
       <c r="B320">
@@ -4987,7 +4947,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="25" t="s">
+      <c r="A321" s="5" t="s">
         <v>320</v>
       </c>
       <c r="B321">
@@ -4998,7 +4958,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="25" t="s">
+      <c r="A322" s="5" t="s">
         <v>321</v>
       </c>
       <c r="B322">
@@ -5009,7 +4969,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="25" t="s">
+      <c r="A323" s="5" t="s">
         <v>322</v>
       </c>
       <c r="B323">
@@ -5020,7 +4980,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="25" t="s">
+      <c r="A324" s="5" t="s">
         <v>323</v>
       </c>
       <c r="B324">
@@ -5031,7 +4991,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="25" t="s">
+      <c r="A325" s="5" t="s">
         <v>324</v>
       </c>
       <c r="B325">
@@ -5042,7 +5002,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="25" t="s">
+      <c r="A326" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B326">
@@ -5053,7 +5013,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="25" t="s">
+      <c r="A327" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B327">
@@ -5064,7 +5024,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="25" t="s">
+      <c r="A328" s="5" t="s">
         <v>327</v>
       </c>
       <c r="B328">
@@ -5075,7 +5035,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="25" t="s">
+      <c r="A329" s="5" t="s">
         <v>328</v>
       </c>
       <c r="B329">
@@ -5086,7 +5046,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="25" t="s">
+      <c r="A330" s="5" t="s">
         <v>329</v>
       </c>
       <c r="B330">
@@ -5097,7 +5057,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="25" t="s">
+      <c r="A331" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B331">
@@ -5108,7 +5068,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="25" t="s">
+      <c r="A332" s="5" t="s">
         <v>331</v>
       </c>
       <c r="B332">
@@ -5119,7 +5079,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="25" t="s">
+      <c r="A333" s="5" t="s">
         <v>332</v>
       </c>
       <c r="B333">
@@ -5130,7 +5090,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="25" t="s">
+      <c r="A334" s="5" t="s">
         <v>333</v>
       </c>
       <c r="B334">
@@ -5141,7 +5101,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="25" t="s">
+      <c r="A335" s="5" t="s">
         <v>334</v>
       </c>
       <c r="B335">
@@ -5152,7 +5112,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="25" t="s">
+      <c r="A336" s="5" t="s">
         <v>335</v>
       </c>
       <c r="B336">
@@ -5163,7 +5123,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="25" t="s">
+      <c r="A337" s="5" t="s">
         <v>336</v>
       </c>
       <c r="B337">
@@ -5174,7 +5134,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="25" t="s">
+      <c r="A338" s="5" t="s">
         <v>337</v>
       </c>
       <c r="B338">
@@ -5185,7 +5145,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="25" t="s">
+      <c r="A339" s="5" t="s">
         <v>338</v>
       </c>
       <c r="B339">
@@ -5196,7 +5156,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="25" t="s">
+      <c r="A340" s="5" t="s">
         <v>339</v>
       </c>
       <c r="B340">
@@ -5207,7 +5167,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="25" t="s">
+      <c r="A341" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B341">
@@ -5218,7 +5178,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="25" t="s">
+      <c r="A342" s="5" t="s">
         <v>341</v>
       </c>
       <c r="B342">
@@ -5229,7 +5189,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="25" t="s">
+      <c r="A343" s="5" t="s">
         <v>342</v>
       </c>
       <c r="B343">
@@ -5240,7 +5200,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="25" t="s">
+      <c r="A344" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B344">
@@ -5251,7 +5211,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="25" t="s">
+      <c r="A345" s="5" t="s">
         <v>344</v>
       </c>
       <c r="B345">
@@ -5262,7 +5222,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="25" t="s">
+      <c r="A346" s="5" t="s">
         <v>345</v>
       </c>
       <c r="B346">
@@ -5273,7 +5233,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="25" t="s">
+      <c r="A347" s="5" t="s">
         <v>346</v>
       </c>
       <c r="B347">
@@ -5284,7 +5244,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="25" t="s">
+      <c r="A348" s="5" t="s">
         <v>347</v>
       </c>
       <c r="B348">
@@ -5295,7 +5255,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="25" t="s">
+      <c r="A349" s="5" t="s">
         <v>348</v>
       </c>
       <c r="B349">
@@ -5306,7 +5266,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="25" t="s">
+      <c r="A350" s="5" t="s">
         <v>349</v>
       </c>
       <c r="B350">
@@ -5317,7 +5277,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="25" t="s">
+      <c r="A351" s="5" t="s">
         <v>350</v>
       </c>
       <c r="B351">
@@ -5328,7 +5288,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="25" t="s">
+      <c r="A352" s="5" t="s">
         <v>351</v>
       </c>
       <c r="B352">
@@ -5339,7 +5299,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="25" t="s">
+      <c r="A353" s="5" t="s">
         <v>352</v>
       </c>
       <c r="B353">
@@ -5350,7 +5310,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="25" t="s">
+      <c r="A354" s="5" t="s">
         <v>353</v>
       </c>
       <c r="B354">
@@ -5361,7 +5321,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="25" t="s">
+      <c r="A355" s="5" t="s">
         <v>354</v>
       </c>
       <c r="B355">
@@ -5372,7 +5332,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="5" t="s">
         <v>355</v>
       </c>
       <c r="B356">
@@ -5383,7 +5343,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="25" t="s">
+      <c r="A357" s="5" t="s">
         <v>356</v>
       </c>
       <c r="B357">
@@ -5394,7 +5354,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="25" t="s">
+      <c r="A358" s="5" t="s">
         <v>357</v>
       </c>
       <c r="B358">
@@ -5405,7 +5365,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="25" t="s">
+      <c r="A359" s="5" t="s">
         <v>358</v>
       </c>
       <c r="B359">
@@ -5416,7 +5376,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="25" t="s">
+      <c r="A360" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B360">
@@ -5427,7 +5387,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="25" t="s">
+      <c r="A361" s="5" t="s">
         <v>360</v>
       </c>
       <c r="B361">
@@ -5438,7 +5398,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="25" t="s">
+      <c r="A362" s="5" t="s">
         <v>361</v>
       </c>
       <c r="B362">
@@ -5449,7 +5409,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="25" t="s">
+      <c r="A363" s="5" t="s">
         <v>362</v>
       </c>
       <c r="B363">
@@ -5460,7 +5420,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="25" t="s">
+      <c r="A364" s="5" t="s">
         <v>363</v>
       </c>
       <c r="B364">
@@ -5471,7 +5431,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="25" t="s">
+      <c r="A365" s="5" t="s">
         <v>364</v>
       </c>
       <c r="B365">
@@ -5482,7 +5442,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="25" t="s">
+      <c r="A366" s="5" t="s">
         <v>365</v>
       </c>
       <c r="B366">
@@ -5493,7 +5453,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="25" t="s">
+      <c r="A367" s="5" t="s">
         <v>366</v>
       </c>
       <c r="B367">
@@ -5504,7 +5464,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="25" t="s">
+      <c r="A368" s="5" t="s">
         <v>367</v>
       </c>
       <c r="B368">
@@ -5515,7 +5475,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="25" t="s">
+      <c r="A369" s="5" t="s">
         <v>368</v>
       </c>
       <c r="B369">
@@ -5526,7 +5486,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="25" t="s">
+      <c r="A370" s="5" t="s">
         <v>369</v>
       </c>
       <c r="B370">
@@ -5537,7 +5497,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="25" t="s">
+      <c r="A371" s="5" t="s">
         <v>370</v>
       </c>
       <c r="B371">
@@ -5548,7 +5508,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="25" t="s">
+      <c r="A372" s="5" t="s">
         <v>371</v>
       </c>
       <c r="B372">
@@ -5559,7 +5519,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="25" t="s">
+      <c r="A373" s="5" t="s">
         <v>372</v>
       </c>
       <c r="B373">
@@ -5570,7 +5530,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="25" t="s">
+      <c r="A374" s="5" t="s">
         <v>373</v>
       </c>
       <c r="B374">
@@ -5581,7 +5541,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="25" t="s">
+      <c r="A375" s="5" t="s">
         <v>374</v>
       </c>
       <c r="B375">
@@ -5592,7 +5552,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="25" t="s">
+      <c r="A376" s="5" t="s">
         <v>375</v>
       </c>
       <c r="B376">
@@ -5603,7 +5563,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="25" t="s">
+      <c r="A377" s="5" t="s">
         <v>376</v>
       </c>
       <c r="B377">
@@ -5614,7 +5574,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="25" t="s">
+      <c r="A378" s="5" t="s">
         <v>377</v>
       </c>
       <c r="B378">
@@ -5625,7 +5585,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="25" t="s">
+      <c r="A379" s="5" t="s">
         <v>378</v>
       </c>
       <c r="B379">
@@ -5636,7 +5596,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="25" t="s">
+      <c r="A380" s="5" t="s">
         <v>379</v>
       </c>
       <c r="B380">
@@ -5647,7 +5607,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="25" t="s">
+      <c r="A381" s="5" t="s">
         <v>380</v>
       </c>
       <c r="B381">
@@ -5658,7 +5618,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="25" t="s">
+      <c r="A382" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B382">
@@ -5669,7 +5629,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="25" t="s">
+      <c r="A383" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B383">
@@ -5680,7 +5640,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="25" t="s">
+      <c r="A384" s="5" t="s">
         <v>383</v>
       </c>
       <c r="B384">
@@ -5691,7 +5651,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="25" t="s">
+      <c r="A385" s="5" t="s">
         <v>384</v>
       </c>
       <c r="B385">
@@ -5702,7 +5662,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="25" t="s">
+      <c r="A386" s="5" t="s">
         <v>385</v>
       </c>
       <c r="B386">
@@ -5713,7 +5673,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="25" t="s">
+      <c r="A387" s="5" t="s">
         <v>386</v>
       </c>
       <c r="B387">
@@ -5724,7 +5684,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="25" t="s">
+      <c r="A388" s="5" t="s">
         <v>387</v>
       </c>
       <c r="B388">
@@ -5735,7 +5695,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="25" t="s">
+      <c r="A389" s="5" t="s">
         <v>388</v>
       </c>
       <c r="B389">
@@ -5746,7 +5706,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="25" t="s">
+      <c r="A390" s="5" t="s">
         <v>389</v>
       </c>
       <c r="B390">
@@ -5757,7 +5717,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="25" t="s">
+      <c r="A391" s="5" t="s">
         <v>390</v>
       </c>
       <c r="B391">
@@ -5768,7 +5728,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="25" t="s">
+      <c r="A392" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B392">
@@ -5779,7 +5739,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="25" t="s">
+      <c r="A393" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B393">
@@ -5790,7 +5750,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="25" t="s">
+      <c r="A394" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B394">
@@ -5801,7 +5761,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="25" t="s">
+      <c r="A395" s="5" t="s">
         <v>394</v>
       </c>
       <c r="B395">
@@ -5812,7 +5772,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="25" t="s">
+      <c r="A396" s="5" t="s">
         <v>395</v>
       </c>
       <c r="B396">
@@ -5823,7 +5783,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="25" t="s">
+      <c r="A397" s="5" t="s">
         <v>396</v>
       </c>
       <c r="B397">
@@ -5834,7 +5794,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="25" t="s">
+      <c r="A398" s="5" t="s">
         <v>397</v>
       </c>
       <c r="B398">
@@ -5845,7 +5805,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="25" t="s">
+      <c r="A399" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B399">
@@ -5856,7 +5816,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="25" t="s">
+      <c r="A400" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B400">
@@ -5867,7 +5827,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="25" t="s">
+      <c r="A401" s="5" t="s">
         <v>400</v>
       </c>
       <c r="B401">
@@ -5878,7 +5838,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="25" t="s">
+      <c r="A402" s="5" t="s">
         <v>401</v>
       </c>
       <c r="B402">
@@ -5889,7 +5849,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="25" t="s">
+      <c r="A403" s="5" t="s">
         <v>402</v>
       </c>
       <c r="B403">
@@ -5900,7 +5860,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="25" t="s">
+      <c r="A404" s="5" t="s">
         <v>403</v>
       </c>
       <c r="B404">
@@ -5911,7 +5871,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="25" t="s">
+      <c r="A405" s="5" t="s">
         <v>404</v>
       </c>
       <c r="B405">
@@ -5922,7 +5882,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="25" t="s">
+      <c r="A406" s="5" t="s">
         <v>405</v>
       </c>
       <c r="B406">
@@ -5933,7 +5893,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="25" t="s">
+      <c r="A407" s="5" t="s">
         <v>406</v>
       </c>
       <c r="B407">
@@ -5944,7 +5904,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="25" t="s">
+      <c r="A408" s="5" t="s">
         <v>407</v>
       </c>
       <c r="B408">
@@ -5955,7 +5915,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="25" t="s">
+      <c r="A409" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B409">
@@ -5966,7 +5926,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="25" t="s">
+      <c r="A410" s="5" t="s">
         <v>409</v>
       </c>
       <c r="B410">
@@ -5977,7 +5937,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="25" t="s">
+      <c r="A411" s="5" t="s">
         <v>410</v>
       </c>
       <c r="B411">
@@ -5988,7 +5948,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="25" t="s">
+      <c r="A412" s="5" t="s">
         <v>411</v>
       </c>
       <c r="B412">
@@ -5999,7 +5959,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="25" t="s">
+      <c r="A413" s="5" t="s">
         <v>412</v>
       </c>
       <c r="B413">
@@ -6010,7 +5970,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="25" t="s">
+      <c r="A414" s="5" t="s">
         <v>413</v>
       </c>
       <c r="B414">
@@ -6021,7 +5981,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="25" t="s">
+      <c r="A415" s="5" t="s">
         <v>414</v>
       </c>
       <c r="B415">
@@ -6032,7 +5992,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="25" t="s">
+      <c r="A416" s="5" t="s">
         <v>415</v>
       </c>
       <c r="B416">
@@ -6043,7 +6003,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="25" t="s">
+      <c r="A417" s="5" t="s">
         <v>416</v>
       </c>
       <c r="B417">
@@ -6054,7 +6014,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="25" t="s">
+      <c r="A418" s="5" t="s">
         <v>417</v>
       </c>
       <c r="B418">
@@ -6065,7 +6025,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="25" t="s">
+      <c r="A419" s="5" t="s">
         <v>418</v>
       </c>
       <c r="B419">
@@ -6076,7 +6036,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="25" t="s">
+      <c r="A420" s="5" t="s">
         <v>419</v>
       </c>
       <c r="B420">
@@ -6087,7 +6047,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="25" t="s">
+      <c r="A421" s="5" t="s">
         <v>420</v>
       </c>
       <c r="B421">
@@ -6098,7 +6058,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="25" t="s">
+      <c r="A422" s="5" t="s">
         <v>421</v>
       </c>
       <c r="B422">
@@ -6109,7 +6069,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="25" t="s">
+      <c r="A423" s="5" t="s">
         <v>422</v>
       </c>
       <c r="B423">
@@ -6120,7 +6080,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="25" t="s">
+      <c r="A424" s="5" t="s">
         <v>423</v>
       </c>
       <c r="B424">
@@ -6131,7 +6091,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="25" t="s">
+      <c r="A425" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B425">
@@ -6142,7 +6102,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="25" t="s">
+      <c r="A426" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B426">
@@ -6153,7 +6113,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="25" t="s">
+      <c r="A427" s="5" t="s">
         <v>426</v>
       </c>
       <c r="B427">
@@ -6164,7 +6124,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="25" t="s">
+      <c r="A428" s="5" t="s">
         <v>427</v>
       </c>
       <c r="B428">
@@ -6175,7 +6135,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="25" t="s">
+      <c r="A429" s="5" t="s">
         <v>428</v>
       </c>
       <c r="B429">
@@ -6186,7 +6146,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="25" t="s">
+      <c r="A430" s="5" t="s">
         <v>429</v>
       </c>
       <c r="B430">
@@ -6197,7 +6157,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="25" t="s">
+      <c r="A431" s="5" t="s">
         <v>430</v>
       </c>
       <c r="B431">
@@ -6208,7 +6168,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="25" t="s">
+      <c r="A432" s="5" t="s">
         <v>431</v>
       </c>
       <c r="B432">
@@ -6219,7 +6179,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="25" t="s">
+      <c r="A433" s="5" t="s">
         <v>432</v>
       </c>
       <c r="B433">
@@ -6230,7 +6190,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="25" t="s">
+      <c r="A434" s="5" t="s">
         <v>433</v>
       </c>
       <c r="B434">
@@ -6241,7 +6201,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="25" t="s">
+      <c r="A435" s="5" t="s">
         <v>434</v>
       </c>
       <c r="B435">
@@ -6252,7 +6212,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="25" t="s">
+      <c r="A436" s="5" t="s">
         <v>435</v>
       </c>
       <c r="B436">
@@ -6263,7 +6223,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="25" t="s">
+      <c r="A437" s="5" t="s">
         <v>436</v>
       </c>
       <c r="B437">
@@ -6274,7 +6234,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="25" t="s">
+      <c r="A438" s="5" t="s">
         <v>437</v>
       </c>
       <c r="B438">
@@ -6285,7 +6245,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="25" t="s">
+      <c r="A439" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B439">
@@ -6296,7 +6256,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="25" t="s">
+      <c r="A440" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B440">
@@ -6307,7 +6267,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="25" t="s">
+      <c r="A441" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B441">
@@ -6318,7 +6278,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="25" t="s">
+      <c r="A442" s="5" t="s">
         <v>441</v>
       </c>
       <c r="B442">
@@ -6329,7 +6289,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="25" t="s">
+      <c r="A443" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B443">
@@ -6340,7 +6300,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="25" t="s">
+      <c r="A444" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B444">
@@ -6351,7 +6311,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="25" t="s">
+      <c r="A445" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B445">
@@ -6362,7 +6322,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="25" t="s">
+      <c r="A446" s="5" t="s">
         <v>445</v>
       </c>
       <c r="B446">
@@ -6373,7 +6333,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="25" t="s">
+      <c r="A447" s="5" t="s">
         <v>446</v>
       </c>
       <c r="B447">
@@ -6384,7 +6344,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="25" t="s">
+      <c r="A448" s="5" t="s">
         <v>447</v>
       </c>
       <c r="B448">
